--- a/doc/4_ 테스트케이스 및 테스트결과보고서/테스트케이스.xlsx
+++ b/doc/4_ 테스트케이스 및 테스트결과보고서/테스트케이스.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\구보선\Desktop\학업\2017년도 1학기\소프트웨어 공학\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\구보선\Desktop\SE2017_2_mixharmony\doc\4_ 테스트케이스 및 테스트결과보고서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12168"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12168" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="이력" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="315">
   <si>
     <t>TestCase ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1668,6 +1668,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1679,15 +1688,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2005,7 +2005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -2028,12 +2028,12 @@
     </row>
     <row r="5" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="1:4" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B7" s="15"/>
@@ -2053,16 +2053,16 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="26" t="s">
         <v>311</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>312</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="25" t="s">
         <v>314</v>
       </c>
     </row>
@@ -2194,9 +2194,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K69" sqref="K69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2272,7 +2272,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="29" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="22" t="s">
@@ -2298,7 +2298,7 @@
       <c r="K8" s="22"/>
     </row>
     <row r="9" spans="1:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="27"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="1" t="s">
         <v>30</v>
       </c>
@@ -2322,7 +2322,7 @@
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="27"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="1" t="s">
         <v>139</v>
       </c>
@@ -2346,7 +2346,7 @@
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="27"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="1" t="s">
         <v>238</v>
       </c>
@@ -2370,7 +2370,7 @@
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B12" s="28"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="1" t="s">
         <v>109</v>
       </c>
@@ -2394,7 +2394,7 @@
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="29" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -2422,7 +2422,7 @@
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B14" s="27"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="1" t="s">
         <v>158</v>
       </c>
@@ -2448,7 +2448,7 @@
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B15" s="28"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="1" t="s">
         <v>240</v>
       </c>
@@ -2474,7 +2474,7 @@
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="29" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -2502,7 +2502,7 @@
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B17" s="27"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="1" t="s">
         <v>242</v>
       </c>
@@ -2528,7 +2528,7 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B18" s="27"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="1" t="s">
         <v>243</v>
       </c>
@@ -2554,7 +2554,7 @@
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B19" s="27"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="1" t="s">
         <v>244</v>
       </c>
@@ -2580,7 +2580,7 @@
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B20" s="27"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="1" t="s">
         <v>245</v>
       </c>
@@ -2606,7 +2606,7 @@
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B21" s="27"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="1" t="s">
         <v>131</v>
       </c>
@@ -2632,7 +2632,7 @@
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B22" s="27"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="1" t="s">
         <v>246</v>
       </c>
@@ -2656,7 +2656,7 @@
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B23" s="27"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="1" t="s">
         <v>132</v>
       </c>
@@ -2680,7 +2680,7 @@
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="2:11" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B24" s="27"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="1" t="s">
         <v>247</v>
       </c>
@@ -2704,7 +2704,7 @@
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="2:11" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B25" s="27"/>
+      <c r="B25" s="30"/>
       <c r="C25" s="1" t="s">
         <v>248</v>
       </c>
@@ -2728,7 +2728,7 @@
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="2:11" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B26" s="27"/>
+      <c r="B26" s="30"/>
       <c r="C26" s="1" t="s">
         <v>249</v>
       </c>
@@ -2752,7 +2752,7 @@
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="2:11" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B27" s="27"/>
+      <c r="B27" s="30"/>
       <c r="C27" s="1" t="s">
         <v>133</v>
       </c>
@@ -2776,7 +2776,7 @@
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="2:11" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B28" s="28"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="1" t="s">
         <v>134</v>
       </c>
@@ -2824,7 +2824,7 @@
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="29" t="s">
         <v>35</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -2848,7 +2848,7 @@
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B31" s="27"/>
+      <c r="B31" s="30"/>
       <c r="C31" s="1" t="s">
         <v>250</v>
       </c>
@@ -2870,7 +2870,7 @@
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B32" s="27"/>
+      <c r="B32" s="30"/>
       <c r="C32" s="1" t="s">
         <v>251</v>
       </c>
@@ -2892,7 +2892,7 @@
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B33" s="27"/>
+      <c r="B33" s="30"/>
       <c r="C33" s="1" t="s">
         <v>137</v>
       </c>
@@ -2914,7 +2914,7 @@
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B34" s="27"/>
+      <c r="B34" s="30"/>
       <c r="C34" s="1" t="s">
         <v>110</v>
       </c>
@@ -2936,7 +2936,7 @@
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B35" s="27"/>
+      <c r="B35" s="30"/>
       <c r="C35" s="1" t="s">
         <v>252</v>
       </c>
@@ -2958,7 +2958,7 @@
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B36" s="27"/>
+      <c r="B36" s="30"/>
       <c r="C36" s="1" t="s">
         <v>253</v>
       </c>
@@ -2982,7 +2982,7 @@
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B37" s="27"/>
+      <c r="B37" s="30"/>
       <c r="C37" s="1" t="s">
         <v>254</v>
       </c>
@@ -3006,7 +3006,7 @@
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="2:11" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B38" s="27"/>
+      <c r="B38" s="30"/>
       <c r="C38" s="1" t="s">
         <v>255</v>
       </c>
@@ -3030,7 +3030,7 @@
       <c r="K38" s="1"/>
     </row>
     <row r="39" spans="2:11" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B39" s="27"/>
+      <c r="B39" s="30"/>
       <c r="C39" s="1" t="s">
         <v>256</v>
       </c>
@@ -3054,7 +3054,7 @@
       <c r="K39" s="1"/>
     </row>
     <row r="40" spans="2:11" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B40" s="27"/>
+      <c r="B40" s="30"/>
       <c r="C40" s="1" t="s">
         <v>257</v>
       </c>
@@ -3078,7 +3078,7 @@
       <c r="K40" s="1"/>
     </row>
     <row r="41" spans="2:11" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B41" s="27"/>
+      <c r="B41" s="30"/>
       <c r="C41" s="1" t="s">
         <v>258</v>
       </c>
@@ -3102,7 +3102,7 @@
       <c r="K41" s="1"/>
     </row>
     <row r="42" spans="2:11" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B42" s="28"/>
+      <c r="B42" s="31"/>
       <c r="C42" s="1" t="s">
         <v>259</v>
       </c>
@@ -3150,7 +3150,7 @@
       <c r="K43" s="1"/>
     </row>
     <row r="44" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B44" s="26" t="s">
+      <c r="B44" s="29" t="s">
         <v>42</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -3174,7 +3174,7 @@
       <c r="K44" s="1"/>
     </row>
     <row r="45" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B45" s="27"/>
+      <c r="B45" s="30"/>
       <c r="C45" s="1" t="s">
         <v>262</v>
       </c>
@@ -3196,7 +3196,7 @@
       <c r="K45" s="1"/>
     </row>
     <row r="46" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B46" s="27"/>
+      <c r="B46" s="30"/>
       <c r="C46" s="1" t="s">
         <v>263</v>
       </c>
@@ -3222,7 +3222,7 @@
       <c r="K46" s="1"/>
     </row>
     <row r="47" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B47" s="27"/>
+      <c r="B47" s="30"/>
       <c r="C47" s="1" t="s">
         <v>264</v>
       </c>
@@ -3248,7 +3248,7 @@
       <c r="K47" s="1"/>
     </row>
     <row r="48" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B48" s="27"/>
+      <c r="B48" s="30"/>
       <c r="C48" s="1" t="s">
         <v>265</v>
       </c>
@@ -3274,7 +3274,7 @@
       <c r="K48" s="1"/>
     </row>
     <row r="49" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B49" s="27"/>
+      <c r="B49" s="30"/>
       <c r="C49" s="1" t="s">
         <v>266</v>
       </c>
@@ -3300,7 +3300,7 @@
       <c r="K49" s="1"/>
     </row>
     <row r="50" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B50" s="27"/>
+      <c r="B50" s="30"/>
       <c r="C50" s="1" t="s">
         <v>267</v>
       </c>
@@ -3326,7 +3326,7 @@
       <c r="K50" s="1"/>
     </row>
     <row r="51" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B51" s="27"/>
+      <c r="B51" s="30"/>
       <c r="C51" s="1" t="s">
         <v>268</v>
       </c>
@@ -3352,7 +3352,7 @@
       <c r="K51" s="1"/>
     </row>
     <row r="52" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B52" s="27"/>
+      <c r="B52" s="30"/>
       <c r="C52" s="1" t="s">
         <v>269</v>
       </c>
@@ -3378,7 +3378,7 @@
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B53" s="27"/>
+      <c r="B53" s="30"/>
       <c r="C53" s="1" t="s">
         <v>270</v>
       </c>
@@ -3404,7 +3404,7 @@
       <c r="K53" s="1"/>
     </row>
     <row r="54" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B54" s="27"/>
+      <c r="B54" s="30"/>
       <c r="C54" s="1" t="s">
         <v>271</v>
       </c>
@@ -3428,7 +3428,7 @@
       <c r="K54" s="1"/>
     </row>
     <row r="55" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B55" s="27"/>
+      <c r="B55" s="30"/>
       <c r="C55" s="1" t="s">
         <v>272</v>
       </c>
@@ -3452,7 +3452,7 @@
       <c r="K55" s="1"/>
     </row>
     <row r="56" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B56" s="27"/>
+      <c r="B56" s="30"/>
       <c r="C56" s="1" t="s">
         <v>273</v>
       </c>
@@ -3476,7 +3476,7 @@
       <c r="K56" s="1"/>
     </row>
     <row r="57" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B57" s="27"/>
+      <c r="B57" s="30"/>
       <c r="C57" s="1" t="s">
         <v>274</v>
       </c>
@@ -3500,7 +3500,7 @@
       <c r="K57" s="1"/>
     </row>
     <row r="58" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B58" s="27"/>
+      <c r="B58" s="30"/>
       <c r="C58" s="1" t="s">
         <v>275</v>
       </c>
@@ -3524,7 +3524,7 @@
       <c r="K58" s="1"/>
     </row>
     <row r="59" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B59" s="27"/>
+      <c r="B59" s="30"/>
       <c r="C59" s="1" t="s">
         <v>276</v>
       </c>
@@ -3548,7 +3548,7 @@
       <c r="K59" s="1"/>
     </row>
     <row r="60" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B60" s="27"/>
+      <c r="B60" s="30"/>
       <c r="C60" s="1" t="s">
         <v>277</v>
       </c>
@@ -3572,7 +3572,7 @@
       <c r="K60" s="1"/>
     </row>
     <row r="61" spans="2:11" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B61" s="27"/>
+      <c r="B61" s="30"/>
       <c r="C61" s="1" t="s">
         <v>278</v>
       </c>
@@ -3596,7 +3596,7 @@
       <c r="K61" s="1"/>
     </row>
     <row r="62" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B62" s="27"/>
+      <c r="B62" s="30"/>
       <c r="C62" s="1" t="s">
         <v>279</v>
       </c>
@@ -3620,7 +3620,7 @@
       <c r="K62" s="1"/>
     </row>
     <row r="63" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B63" s="28"/>
+      <c r="B63" s="31"/>
       <c r="C63" s="1" t="s">
         <v>280</v>
       </c>
@@ -3668,7 +3668,7 @@
       <c r="K64" s="1"/>
     </row>
     <row r="65" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B65" s="26" t="s">
+      <c r="B65" s="29" t="s">
         <v>44</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -3692,7 +3692,7 @@
       <c r="K65" s="1"/>
     </row>
     <row r="66" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B66" s="27"/>
+      <c r="B66" s="30"/>
       <c r="C66" s="1" t="s">
         <v>283</v>
       </c>
@@ -3709,16 +3709,12 @@
       <c r="H66" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="I66" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J66" s="5" t="s">
-        <v>168</v>
-      </c>
+      <c r="I66" s="1"/>
+      <c r="J66" s="5"/>
       <c r="K66" s="1"/>
     </row>
     <row r="67" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B67" s="27"/>
+      <c r="B67" s="30"/>
       <c r="C67" s="1" t="s">
         <v>284</v>
       </c>
@@ -3735,16 +3731,12 @@
       <c r="H67" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="I67" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J67" s="5" t="s">
-        <v>168</v>
-      </c>
+      <c r="I67" s="1"/>
+      <c r="J67" s="5"/>
       <c r="K67" s="1"/>
     </row>
     <row r="68" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B68" s="27"/>
+      <c r="B68" s="30"/>
       <c r="C68" s="1" t="s">
         <v>285</v>
       </c>
@@ -3761,16 +3753,12 @@
       <c r="H68" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="I68" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J68" s="5" t="s">
-        <v>168</v>
-      </c>
+      <c r="I68" s="1"/>
+      <c r="J68" s="5"/>
       <c r="K68" s="1"/>
     </row>
     <row r="69" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B69" s="27"/>
+      <c r="B69" s="30"/>
       <c r="C69" s="1" t="s">
         <v>286</v>
       </c>
@@ -3787,16 +3775,12 @@
       <c r="H69" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="I69" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J69" s="5" t="s">
-        <v>168</v>
-      </c>
+      <c r="I69" s="1"/>
+      <c r="J69" s="5"/>
       <c r="K69" s="1"/>
     </row>
     <row r="70" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B70" s="27"/>
+      <c r="B70" s="30"/>
       <c r="C70" s="1" t="s">
         <v>287</v>
       </c>
@@ -3813,16 +3797,12 @@
       <c r="H70" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="I70" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J70" s="5" t="s">
-        <v>168</v>
-      </c>
+      <c r="I70" s="1"/>
+      <c r="J70" s="5"/>
       <c r="K70" s="1"/>
     </row>
     <row r="71" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B71" s="27"/>
+      <c r="B71" s="30"/>
       <c r="C71" s="1" t="s">
         <v>288</v>
       </c>
@@ -3839,16 +3819,12 @@
       <c r="H71" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="I71" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J71" s="5" t="s">
-        <v>168</v>
-      </c>
+      <c r="I71" s="1"/>
+      <c r="J71" s="5"/>
       <c r="K71" s="1"/>
     </row>
     <row r="72" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B72" s="27"/>
+      <c r="B72" s="30"/>
       <c r="C72" s="1" t="s">
         <v>289</v>
       </c>
@@ -3865,16 +3841,12 @@
       <c r="H72" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="I72" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J72" s="5" t="s">
-        <v>168</v>
-      </c>
+      <c r="I72" s="1"/>
+      <c r="J72" s="5"/>
       <c r="K72" s="1"/>
     </row>
     <row r="73" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B73" s="27"/>
+      <c r="B73" s="30"/>
       <c r="C73" s="1" t="s">
         <v>290</v>
       </c>
@@ -3891,16 +3863,12 @@
       <c r="H73" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="I73" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J73" s="5" t="s">
-        <v>168</v>
-      </c>
+      <c r="I73" s="1"/>
+      <c r="J73" s="5"/>
       <c r="K73" s="1"/>
     </row>
     <row r="74" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B74" s="27"/>
+      <c r="B74" s="30"/>
       <c r="C74" s="1" t="s">
         <v>291</v>
       </c>
@@ -3924,7 +3892,7 @@
       <c r="K74" s="1"/>
     </row>
     <row r="75" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B75" s="27"/>
+      <c r="B75" s="30"/>
       <c r="C75" s="1" t="s">
         <v>292</v>
       </c>
@@ -3948,7 +3916,7 @@
       <c r="K75" s="1"/>
     </row>
     <row r="76" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B76" s="27"/>
+      <c r="B76" s="30"/>
       <c r="C76" s="1" t="s">
         <v>293</v>
       </c>
@@ -3972,7 +3940,7 @@
       <c r="K76" s="1"/>
     </row>
     <row r="77" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B77" s="27"/>
+      <c r="B77" s="30"/>
       <c r="C77" s="1" t="s">
         <v>294</v>
       </c>
@@ -3996,7 +3964,7 @@
       <c r="K77" s="1"/>
     </row>
     <row r="78" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B78" s="27"/>
+      <c r="B78" s="30"/>
       <c r="C78" s="1" t="s">
         <v>295</v>
       </c>
@@ -4020,7 +3988,7 @@
       <c r="K78" s="1"/>
     </row>
     <row r="79" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B79" s="27"/>
+      <c r="B79" s="30"/>
       <c r="C79" s="1" t="s">
         <v>296</v>
       </c>
@@ -4044,7 +4012,7 @@
       <c r="K79" s="1"/>
     </row>
     <row r="80" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B80" s="27"/>
+      <c r="B80" s="30"/>
       <c r="C80" s="1" t="s">
         <v>297</v>
       </c>
@@ -4068,7 +4036,7 @@
       <c r="K80" s="1"/>
     </row>
     <row r="81" spans="2:11" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B81" s="27"/>
+      <c r="B81" s="30"/>
       <c r="C81" s="1" t="s">
         <v>298</v>
       </c>
@@ -4092,7 +4060,7 @@
       <c r="K81" s="1"/>
     </row>
     <row r="82" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B82" s="27"/>
+      <c r="B82" s="30"/>
       <c r="C82" s="1" t="s">
         <v>299</v>
       </c>
@@ -4116,7 +4084,7 @@
       <c r="K82" s="1"/>
     </row>
     <row r="83" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B83" s="28"/>
+      <c r="B83" s="31"/>
       <c r="C83" s="1" t="s">
         <v>300</v>
       </c>
@@ -4164,7 +4132,7 @@
       <c r="K84" s="1"/>
     </row>
     <row r="85" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B85" s="26" t="s">
+      <c r="B85" s="29" t="s">
         <v>49</v>
       </c>
       <c r="C85" s="1" t="s">
@@ -4188,7 +4156,7 @@
       <c r="K85" s="1"/>
     </row>
     <row r="86" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B86" s="27"/>
+      <c r="B86" s="30"/>
       <c r="C86" s="1" t="s">
         <v>303</v>
       </c>
@@ -4210,7 +4178,7 @@
       <c r="K86" s="1"/>
     </row>
     <row r="87" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B87" s="27"/>
+      <c r="B87" s="30"/>
       <c r="C87" s="1" t="s">
         <v>304</v>
       </c>
@@ -4232,7 +4200,7 @@
       <c r="K87" s="1"/>
     </row>
     <row r="88" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B88" s="27"/>
+      <c r="B88" s="30"/>
       <c r="C88" s="1" t="s">
         <v>305</v>
       </c>
@@ -4254,7 +4222,7 @@
       <c r="K88" s="1"/>
     </row>
     <row r="89" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B89" s="27"/>
+      <c r="B89" s="30"/>
       <c r="C89" s="1" t="s">
         <v>306</v>
       </c>
@@ -4276,7 +4244,7 @@
       <c r="K89" s="1"/>
     </row>
     <row r="90" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B90" s="28"/>
+      <c r="B90" s="31"/>
       <c r="C90" s="1" t="s">
         <v>307</v>
       </c>
@@ -4298,7 +4266,7 @@
       <c r="K90" s="1"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B91" s="26" t="s">
+      <c r="B91" s="29" t="s">
         <v>111</v>
       </c>
       <c r="C91" s="1" t="s">
@@ -4322,7 +4290,7 @@
       <c r="K91" s="1"/>
     </row>
     <row r="92" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B92" s="27"/>
+      <c r="B92" s="30"/>
       <c r="C92" s="1" t="s">
         <v>309</v>
       </c>
@@ -4346,7 +4314,7 @@
       <c r="K92" s="1"/>
     </row>
     <row r="93" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B93" s="28"/>
+      <c r="B93" s="31"/>
       <c r="C93" s="1" t="s">
         <v>310</v>
       </c>

--- a/doc/4_ 테스트케이스 및 테스트결과보고서/테스트케이스.xlsx
+++ b/doc/4_ 테스트케이스 및 테스트결과보고서/테스트케이스.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="345">
   <si>
     <t>TestCase ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1018,19 +1018,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2017.06.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.06.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 기능이 정상적으로 동작하는지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘못된 학번과 비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 입력값을 넣는다.            2. 로그인을 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보 에러 메시지창 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.06.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID와 Password에 대응 되지 않는 학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교 명 메뉴가 정상적으로 동작하는지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 학교 명 메뉴를 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교 명 메뉴 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>fail</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2017.06.05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.06.05</t>
+    <t>데이터 베이스에 등록 된 로그인 정보.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강과목 편집 기능이 정상적으로 동작하는 지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강 과목 정렬 메뉴가 정상적으로 출력되는지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강 과목 관리 화면 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강 과목 관리 화면 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강 과목 관리 화면 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. "사전식순", "요일순" 메뉴를 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"사전식순", "요일순" 메뉴 출력.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1038,98 +1126,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>로그인 기능이 정상적으로 동작하는지 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잘못된 학번과 비밀번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 입력값을 넣는다.            2. 로그인을 클릭한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정보 에러 메시지창 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.06.05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID와 Password에 대응 되지 않는 학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학교 명 메뉴가 정상적으로 동작하는지 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 학교 명 메뉴를 클릭한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학교 명 메뉴 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 베이스에 등록 된 로그인 정보.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수강과목 편집 기능이 정상적으로 동작하는 지 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UC009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수강 과목 정렬 메뉴가 정상적으로 출력되는지 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수강 과목 관리 화면 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수강 과목 관리 화면 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수강 과목 관리 화면 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. "사전식순", "요일순" 메뉴를 클릭한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"사전식순", "요일순" 메뉴 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>요일순 정렬 기능이 정상적으로 동작하는지 확인.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1383,10 +1379,6 @@
   </si>
   <si>
     <t>TC-090</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#787</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2211,16 +2203,16 @@
     </row>
     <row r="10" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A10" s="31" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>341</v>
+      </c>
+      <c r="D10" s="32" t="s">
         <v>342</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>343</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
@@ -2346,8 +2338,8 @@
   <dimension ref="A1:K110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2383,7 +2375,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
@@ -2391,7 +2383,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2455,33 +2447,33 @@
     <row r="9" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B9" s="35"/>
       <c r="C9" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="D9" s="23" t="s">
         <v>260</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>261</v>
       </c>
       <c r="E9" s="23" t="s">
         <v>126</v>
       </c>
       <c r="F9" s="23"/>
       <c r="G9" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="H9" s="23" t="s">
         <v>262</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>263</v>
       </c>
       <c r="I9" s="24" t="s">
         <v>8</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K9" s="22"/>
     </row>
-    <row r="10" spans="1:11" ht="88.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="35"/>
       <c r="C10" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>23</v>
@@ -2490,28 +2482,26 @@
         <v>126</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>24</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>340</v>
-      </c>
+      <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="35"/>
       <c r="C11" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>23</v>
@@ -2529,10 +2519,10 @@
         <v>130</v>
       </c>
       <c r="I11" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>250</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>251</v>
       </c>
       <c r="K11" s="1"/>
     </row>
@@ -2557,45 +2547,45 @@
         <v>130</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="35"/>
       <c r="C13" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>126</v>
       </c>
       <c r="F13" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="G13" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="H13" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="5" t="s">
         <v>257</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>258</v>
       </c>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="36"/>
       <c r="C14" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>31</v>
@@ -2604,7 +2594,7 @@
         <v>126</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G14" s="18" t="s">
         <v>29</v>
@@ -2616,7 +2606,7 @@
         <v>148</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K14" s="18"/>
     </row>
@@ -2631,7 +2621,7 @@
         <v>137</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
@@ -2677,7 +2667,7 @@
     <row r="17" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B17" s="36"/>
       <c r="C17" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>135</v>
@@ -2711,7 +2701,7 @@
         <v>141</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
@@ -2771,7 +2761,7 @@
     <row r="21" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B21" s="35"/>
       <c r="C21" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>155</v>
@@ -2793,7 +2783,7 @@
     <row r="22" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B22" s="35"/>
       <c r="C22" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>158</v>
@@ -2815,7 +2805,7 @@
     <row r="23" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B23" s="35"/>
       <c r="C23" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>162</v>
@@ -2837,7 +2827,7 @@
     <row r="24" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B24" s="35"/>
       <c r="C24" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>142</v>
@@ -2861,7 +2851,7 @@
     <row r="25" spans="2:11" ht="58.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="35"/>
       <c r="C25" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>34</v>
@@ -2885,7 +2875,7 @@
     <row r="26" spans="2:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B26" s="35"/>
       <c r="C26" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>34</v>
@@ -2909,7 +2899,7 @@
     <row r="27" spans="2:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B27" s="35"/>
       <c r="C27" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>34</v>
@@ -2933,7 +2923,7 @@
     <row r="28" spans="2:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B28" s="35"/>
       <c r="C28" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>34</v>
@@ -2957,7 +2947,7 @@
     <row r="29" spans="2:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B29" s="35"/>
       <c r="C29" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>34</v>
@@ -2981,7 +2971,7 @@
     <row r="30" spans="2:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B30" s="36"/>
       <c r="C30" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>34</v>
@@ -3007,7 +2997,7 @@
         <v>51</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>50</v>
@@ -3023,13 +3013,13 @@
         <v>54</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K31" s="18" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="32" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -3037,7 +3027,7 @@
         <v>33</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>174</v>
@@ -3053,17 +3043,17 @@
         <v>64</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B33" s="35"/>
       <c r="C33" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D33" s="18" t="s">
         <v>151</v>
@@ -3079,10 +3069,10 @@
         <v>154</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K33" s="1"/>
     </row>
@@ -3105,10 +3095,10 @@
         <v>157</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K34" s="1"/>
     </row>
@@ -3131,10 +3121,10 @@
         <v>161</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K35" s="1"/>
     </row>
@@ -3157,20 +3147,20 @@
         <v>164</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="2:11" ht="64.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="35"/>
       <c r="C37" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>175</v>
@@ -3185,22 +3175,22 @@
         <v>176</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K37" s="18" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38" spans="2:11" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="35"/>
       <c r="C38" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>175</v>
@@ -3215,22 +3205,22 @@
         <v>32</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K38" s="18" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="39" spans="2:11" ht="73.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="35"/>
       <c r="C39" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>175</v>
@@ -3245,13 +3235,13 @@
         <v>168</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K39" s="18" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40" spans="2:11" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -3260,7 +3250,7 @@
         <v>224</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>175</v>
@@ -3275,22 +3265,22 @@
         <v>32</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K40" s="18" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="41" spans="2:11" ht="78" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="35"/>
       <c r="C41" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>175</v>
@@ -3305,22 +3295,22 @@
         <v>168</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K41" s="18" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="42" spans="2:11" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="35"/>
       <c r="C42" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>175</v>
@@ -3335,22 +3325,22 @@
         <v>32</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K42" s="18" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="43" spans="2:11" ht="78" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="36"/>
       <c r="C43" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>175</v>
@@ -3365,13 +3355,13 @@
         <v>32</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K43" s="18" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="44" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -3425,7 +3415,7 @@
     <row r="46" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B46" s="35"/>
       <c r="C46" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D46" s="18" t="s">
         <v>65</v>
@@ -3447,7 +3437,7 @@
     <row r="47" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B47" s="35"/>
       <c r="C47" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D47" s="18" t="s">
         <v>178</v>
@@ -3469,7 +3459,7 @@
     <row r="48" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B48" s="35"/>
       <c r="C48" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D48" s="18" t="s">
         <v>179</v>
@@ -3491,7 +3481,7 @@
     <row r="49" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B49" s="35"/>
       <c r="C49" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D49" s="18" t="s">
         <v>180</v>
@@ -3535,7 +3525,7 @@
     <row r="51" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B51" s="35"/>
       <c r="C51" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D51" s="18" t="s">
         <v>195</v>
@@ -3695,7 +3685,7 @@
     <row r="58" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B58" s="35"/>
       <c r="C58" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D58" s="18" t="s">
         <v>41</v>
@@ -3815,7 +3805,7 @@
     <row r="63" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B63" s="35"/>
       <c r="C63" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D63" s="18" t="s">
         <v>41</v>
@@ -3839,7 +3829,7 @@
     <row r="64" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B64" s="36"/>
       <c r="C64" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D64" s="18" t="s">
         <v>41</v>
@@ -3865,7 +3855,7 @@
         <v>55</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D65" s="18" t="s">
         <v>56</v>
@@ -3889,7 +3879,7 @@
         <v>42</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D66" s="18" t="s">
         <v>69</v>
@@ -3911,7 +3901,7 @@
     <row r="67" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B67" s="35"/>
       <c r="C67" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D67" s="18" t="s">
         <v>178</v>
@@ -3933,7 +3923,7 @@
     <row r="68" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B68" s="35"/>
       <c r="C68" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D68" s="18" t="s">
         <v>179</v>
@@ -3955,7 +3945,7 @@
     <row r="69" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B69" s="35"/>
       <c r="C69" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D69" s="18" t="s">
         <v>180</v>
@@ -3977,7 +3967,7 @@
     <row r="70" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B70" s="35"/>
       <c r="C70" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D70" s="18" t="s">
         <v>181</v>
@@ -3999,7 +3989,7 @@
     <row r="71" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B71" s="35"/>
       <c r="C71" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D71" s="18" t="s">
         <v>195</v>
@@ -4021,7 +4011,7 @@
     <row r="72" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B72" s="35"/>
       <c r="C72" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D72" s="18" t="s">
         <v>182</v>
@@ -4043,7 +4033,7 @@
     <row r="73" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B73" s="35"/>
       <c r="C73" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D73" s="18" t="s">
         <v>183</v>
@@ -4087,7 +4077,7 @@
     <row r="75" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B75" s="35"/>
       <c r="C75" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D75" s="18" t="s">
         <v>214</v>
@@ -4111,7 +4101,7 @@
     <row r="76" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B76" s="35"/>
       <c r="C76" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D76" s="18" t="s">
         <v>214</v>
@@ -4135,7 +4125,7 @@
     <row r="77" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B77" s="35"/>
       <c r="C77" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D77" s="18" t="s">
         <v>214</v>
@@ -4159,7 +4149,7 @@
     <row r="78" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B78" s="35"/>
       <c r="C78" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D78" s="18" t="s">
         <v>214</v>
@@ -4183,7 +4173,7 @@
     <row r="79" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B79" s="35"/>
       <c r="C79" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D79" s="18" t="s">
         <v>214</v>
@@ -4231,7 +4221,7 @@
     <row r="81" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B81" s="35"/>
       <c r="C81" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D81" s="18" t="s">
         <v>214</v>
@@ -4279,7 +4269,7 @@
     <row r="83" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B83" s="35"/>
       <c r="C83" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D83" s="18" t="s">
         <v>214</v>
@@ -4303,7 +4293,7 @@
     <row r="84" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B84" s="36"/>
       <c r="C84" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D84" s="18" t="s">
         <v>214</v>
@@ -4326,81 +4316,81 @@
     </row>
     <row r="85" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B85" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D85" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D85" s="18" t="s">
+      <c r="E85" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="F85" s="18"/>
       <c r="G85" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="H85" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="H85" s="18" t="s">
+      <c r="I85" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="I85" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="J85" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K85" s="1"/>
     </row>
     <row r="86" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B86" s="35"/>
       <c r="C86" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D86" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F86" s="18"/>
       <c r="G86" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="H86" s="18" t="s">
         <v>277</v>
       </c>
-      <c r="H86" s="18" t="s">
-        <v>278</v>
-      </c>
       <c r="I86" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K86" s="1"/>
     </row>
     <row r="87" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B87" s="36"/>
       <c r="C87" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D87" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F87" s="18"/>
       <c r="G87" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="H87" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="H87" s="18" t="s">
-        <v>280</v>
-      </c>
       <c r="I87" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J87" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K87" s="1"/>
     </row>
@@ -4433,7 +4423,7 @@
         <v>47</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D89" s="18" t="s">
         <v>78</v>
@@ -4449,17 +4439,17 @@
         <v>87</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="J89" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K89" s="1"/>
     </row>
     <row r="90" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B90" s="35"/>
       <c r="C90" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D90" s="18" t="s">
         <v>95</v>
@@ -4475,10 +4465,10 @@
         <v>88</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J90" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K90" s="1"/>
     </row>
@@ -4501,17 +4491,17 @@
         <v>89</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J91" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K91" s="1"/>
     </row>
     <row r="92" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B92" s="35"/>
       <c r="C92" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D92" s="18" t="s">
         <v>97</v>
@@ -4521,16 +4511,16 @@
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H92" s="18" t="s">
         <v>90</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J92" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K92" s="1"/>
     </row>
@@ -4553,17 +4543,17 @@
         <v>94</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J93" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K93" s="1"/>
     </row>
     <row r="94" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B94" s="36"/>
       <c r="C94" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D94" s="18" t="s">
         <v>99</v>
@@ -4579,10 +4569,10 @@
         <v>105</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K94" s="1"/>
     </row>
@@ -4591,7 +4581,7 @@
         <v>108</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>113</v>
@@ -4613,7 +4603,7 @@
     <row r="96" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B96" s="35"/>
       <c r="C96" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D96" s="18" t="s">
         <v>112</v>
@@ -4637,7 +4627,7 @@
     <row r="97" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B97" s="36"/>
       <c r="C97" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>118</v>

--- a/doc/4_ 테스트케이스 및 테스트결과보고서/테스트케이스.xlsx
+++ b/doc/4_ 테스트케이스 및 테스트결과보고서/테스트케이스.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="379">
   <si>
     <t>TestCase ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,10 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt; 팀 명&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">일자 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,10 +178,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>삭제 완료 메시지창 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UC006</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -210,10 +202,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>삭제 완료 메시지창 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UC010</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -306,15 +294,995 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Todo항목 등록 창 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Todo항목 등록 창 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>"변경", "삭제"메뉴 출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1. "변경"메뉴를 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Todo항목 편집 창 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Todo항목 편집 창 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Todo항목 정렬을 위한 메뉴 출력이 정상적으로 동작하는지 확인.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Todo항목 창 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Todo항목 창이 정상적으로 출력 되는지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Todo항목 창 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강 과목 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Todo항목을 추가할 과목을 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Todo항목 창 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. "+"버튼을 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 정렬 메뉴를 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정렬 목록 메뉴 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Todo항목들이 등록된 날짜 순으로 정렬된 화면 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Todo항목들이 마감일 순으로 정렬된 화면 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Todo항목들이 실제 마감일 순으로 정렬된 화면 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. "등록 날짜"을 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. "마감일"을 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. "완료 여부"을 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Todo항목들이 완료 여부 순으로 정렬된 화면 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Todo항목 등록 날짜 순으로 정렬하는 기능이 정상적으로 동작하는지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Todo항목 마감일 순으로 정렬하는 기능이 정상적으로 동작하는지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Todo항목 실제 마감일 순으로 정렬하는 기능이 정상적으로 동작하는지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Todo항목을 완료 여부 순으로 정렬하는 기능이 정상적으로 동작하는지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Todo항목을 중요도 순으로 정렬하는 기능이 정상적으로 동작하는지 확인 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1."중요도"를 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정렬 목록 메뉴 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정렬 목록 메뉴 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정렬 목록 메뉴 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정렬 목록 메뉴 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Todo항목들이 중요도 순으로 정렬된 화면 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 알림 아이콘을 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알림 창 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마감 기한에 대한 알림이 정상적으로 출력되는지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알림 창이 정상적으로 출력 되는지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 알림 아이콘을 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 창이 정상적으로 출력되는지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 실행을 누른다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 창 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 창 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 창 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모두 빈칸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 입력값을 넣는다.                2. 로그인을 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보 에러 메시지창 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 기능이 정상적으로 동작하는지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞는 학번과 잘못된 비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃 확인창 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 취소를 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃 취소 기능이 정상적으로 동작하는지 확인.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃 기능이 정상적으로 동작하는지 확인.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃 확인 창이 정상적으로 출력되는지 확인.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃 확인창 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 확인을 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 창 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강과목 등록 창이 정상적으로 출력되는지 확인.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강과목 등록 기능이 정상적으로 동작하는 지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강 과목 메뉴가 정상적으로 출력되는지 확인.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강과목 등록 창 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 수강 과목 선택을 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강 과목 메뉴 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.06.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.06.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이전 화면 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의 요일 메뉴가 정상적으로 출력되는지 확인.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강과목 등록 창 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 선택을 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의 요일 메뉴 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의 년도 메뉴가 정상적으로 출력되는지 확인.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 년도 선택을 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의 년도 메뉴 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의 학기 메뉴가 정상적으로 출력되는지 확인.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강과목 등록 창 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 학기 선택을 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의 학기 메뉴 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분반 메뉴가 정상적으로 출력되는지 확인.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 분반 선택을 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분반 메뉴 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>올바른 수강 과목 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빈 칸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목명 메뉴 중, "수강 과목 선택"과 나머지는 정보 입력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보 입력 에러 메시지창 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의 요일 메뉴 중, "선택"과 나머지는 정보 입력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의 년도 메뉴 중, "년도 선택"과 나머지는 정보 입력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의 학기 메뉴 중, "학기 선택"과 나머지는 정보 입력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분반 메뉴 중, "분반 선택"과 나머지는 정보 입력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"변경", "삭제"메뉴 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강과목 편집을 위한 창이 정상적으로 출력되는지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강과목 편집 창 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>편집 완료 메시지 창 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마감 기한 년도 메뉴가 정상적으로 출력되는지 확인.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마감 기한 월 메뉴가 정상적으로 출력되는지 확인.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마감 기한 일 메뉴가 정상적으로 출력되는지 확인.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마감 기한 "오전", "오후" 메뉴가 정상적으로 출력되는지 확인.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강 과목 선택 메뉴가 정상적으로 출력되는지 확인.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료여부 메뉴가 정상적으로 출력 되는지 확인.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중요도 표시가 정상적으로 표시 되는지 확인.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 년도를 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>년도 메뉴 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 월을 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월 메뉴 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일 메뉴 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 일을 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 선택을 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"오전", "오후" 메뉴 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 시간을 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 메뉴 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마감 기한 시간 메뉴가 정상적으로 출력되는지 확인.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 수강 과목 선택을 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강 과목 선택 메뉴 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료여부 메뉴 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 별모양 아이콘을 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노란색 별 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Todo항목 등록 창 출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Todo항목 등록 창 출력</t>
+    <t>빈 칸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>년도 메뉴 중, "년도" 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월 메뉴 중, "월" 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일 메뉴 중, "일" 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"오전", "오후" 메뉴 중, "선택" 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시 메뉴 중, "시간" 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강 과목 선택 메뉴 중, "수강과목선택" 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료 여부 메뉴 중, "완료 여부" 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중요도 별을 선택하지 않음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Todo항목 편집 기능이 정상적으로 동작하는지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>편집 Todo항목 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 완료여부를 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-029</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-033</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-043</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-045</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-047</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-048</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-054</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-073</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-075</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-081</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.06.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testcase 작성 및 일부 Test 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구보선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.06.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.06.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 기능이 정상적으로 동작하는지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘못된 학번과 비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 입력값을 넣는다.            2. 로그인을 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보 에러 메시지창 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.06.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID와 Password에 대응 되지 않는 학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교 명 메뉴가 정상적으로 동작하는지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 학교 명 메뉴를 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교 명 메뉴 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 베이스에 등록 된 로그인 정보.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강과목 편집 기능이 정상적으로 동작하는 지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강 과목 정렬 메뉴가 정상적으로 출력되는지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강 과목 관리 화면 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강 과목 관리 화면 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강 과목 관리 화면 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. "사전식순", "요일순" 메뉴를 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"사전식순", "요일순" 메뉴 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요일순 정렬 기능이 정상적으로 동작하는지 확인.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. "요일순"을 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요일순으로 정렬된 과목 목록.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. "사전식순"을 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사전식으로 정렬된 과목 목록.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-026</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-031</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-034</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-035</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-036</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-039</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-042</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-056</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-058</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-059</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-061</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-062</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-063</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-065</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-066</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-070</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-072</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-074</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-076</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-077</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-085</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-087</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-088</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#791</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testcase 수정 및 일부 Test 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구보선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. "실제 마감일"을 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.06.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. "삭제"를 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제 확인 메시지창 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.06.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Todo항목 삭제 확인 메시지가 정상적으로 출력 되는지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제 확인 메시지창 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. "예"를 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 Todo 항목 삭제 된 화면.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. "아니오"를 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이전 화면 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-037</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-038</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강과목 삭제 확인 메시지가 정상적으로 출력 되는지 확인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -322,299 +1290,115 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. "변경"메뉴를 클릭한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Todo항목 편집 창 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Todo항목 편집 창 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. "삭제"를 클릭한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Todo항목 정렬을 위한 메뉴 출력이 정상적으로 동작하는지 확인.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Todo항목 창 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Todo항목 창이 정상적으로 출력 되는지 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Todo항목 창 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수강 과목 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Todo항목을 추가할 과목을 클릭한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Todo항목 창 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. "+"버튼을 클릭한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 정렬 메뉴를 클릭한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정렬 목록 메뉴 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Todo항목들이 등록된 날짜 순으로 정렬된 화면 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Todo항목들이 마감일 순으로 정렬된 화면 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Todo항목들이 실제 마감일 순으로 정렬된 화면 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. "등록 날짜"을 클릭한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. "마감일"을 클릭한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. "완료 여부"을 클릭한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Todo항목들이 완료 여부 순으로 정렬된 화면 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Todo항목 등록 날짜 순으로 정렬하는 기능이 정상적으로 동작하는지 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Todo항목 마감일 순으로 정렬하는 기능이 정상적으로 동작하는지 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Todo항목 실제 마감일 순으로 정렬하는 기능이 정상적으로 동작하는지 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Todo항목을 완료 여부 순으로 정렬하는 기능이 정상적으로 동작하는지 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Todo항목을 중요도 순으로 정렬하는 기능이 정상적으로 동작하는지 확인 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1."중요도"를 클릭한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정렬 목록 메뉴 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정렬 목록 메뉴 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정렬 목록 메뉴 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정렬 목록 메뉴 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Todo항목들이 중요도 순으로 정렬된 화면 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-027</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UC011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 프레임 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 알림 아이콘을 클릭한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>알림 창 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마감 기한에 대한 알림이 정상적으로 출력되는지 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>알림 창이 정상적으로 출력 되는지 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마감 기한이 ()인 Todo항목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 프레임 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 알림 아이콘을 클릭한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>알림 창 안에 입력값에 해당하는 항목 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연동 기능이 정상적으로 작동하는지 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 알림 아이콘을 클릭한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 프레임 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>알림 창 안에 입력값에 해당하는 항목 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 창이 정상적으로 출력되는지 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 실행을 누른다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 창 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 창 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 창 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모두 빈칸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 입력값을 넣는다.                2. 로그인을 클릭한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정보 에러 메시지창 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 기능이 정상적으로 동작하는지 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맞는 학번과 잘못된 비밀번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그아웃 확인창 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 취소를 클릭한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그아웃 취소 기능이 정상적으로 동작하는지 확인.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그아웃 기능이 정상적으로 동작하는지 확인.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그아웃 확인 창이 정상적으로 출력되는지 확인.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그아웃 확인창 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 확인을 클릭한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 창 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수강과목 등록 창이 정상적으로 출력되는지 확인.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수강과목 등록 기능이 정상적으로 동작하는 지 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수강 과목 메뉴가 정상적으로 출력되는지 확인.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수강과목 등록 창 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 수강 과목 선택을 클릭한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수강 과목 메뉴 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.06.04</t>
+    <t>1. 삭제를 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. "예"를 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 과목 삭제 된 화면 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이전 화면 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제 확인 메시지창 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 정보가 들어있는 데이터베이스 구축.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 로그인을 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인이 성공하고, 수강 과목 관리 화면 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스 ITEM &lt;SUBJECT&gt;가 정상적으로 생성 되었는지 확인.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스 ITEM &lt;TO DO LIST&gt;가 정상적으로 생성 되었는지 확인.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스 정상 구축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스 정상 구축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 수강 과목을 추가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Todo항목을 추가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가된 과목이 수강관리 화면에 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가된 Todo항목이 Todo항목 관리 화면에 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강 과목 관리 화면 출력 및 마감일이 하루 남은 Todo항목 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마감일이 하루 남은 Todo항목 출력된 알림 창 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC012, UC011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스 구축 및 설계와 연동이 정상적으로 완료 됐는지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-041</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-052</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-064</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-071</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-078</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구보선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;Mixharmony&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -622,79 +1406,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2017.06.04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이전 화면 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강의 요일 메뉴가 정상적으로 출력되는지 확인.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수강과목 등록 창 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 선택을 클릭한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강의 요일 메뉴 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강의 년도 메뉴가 정상적으로 출력되는지 확인.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 년도 선택을 클릭한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강의 년도 메뉴 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강의 학기 메뉴가 정상적으로 출력되는지 확인.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수강과목 등록 창 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 학기 선택을 클릭한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강의 학기 메뉴 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분반 메뉴가 정상적으로 출력되는지 확인.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 분반 선택을 클릭한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분반 메뉴 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>올바른 수강 과목 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빈 칸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>과목명 메뉴 중, "수강 과목 선택"과 나머지는 정보 입력.</t>
+    <t>fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.06.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.06.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.06.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Todo항목 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -702,243 +1450,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>강의 요일 메뉴 중, "선택"과 나머지는 정보 입력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강의 년도 메뉴 중, "년도 선택"과 나머지는 정보 입력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강의 학기 메뉴 중, "학기 선택"과 나머지는 정보 입력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분반 메뉴 중, "분반 선택"과 나머지는 정보 입력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"변경", "삭제"메뉴 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수강과목 편집을 위한 창이 정상적으로 출력되는지 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수강과목 편집 창 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>편집 완료 메시지 창 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 삭제를 클릭한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마감 기한 년도 메뉴가 정상적으로 출력되는지 확인.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마감 기한 월 메뉴가 정상적으로 출력되는지 확인.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마감 기한 일 메뉴가 정상적으로 출력되는지 확인.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마감 기한 "오전", "오후" 메뉴가 정상적으로 출력되는지 확인.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수강 과목 선택 메뉴가 정상적으로 출력되는지 확인.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>완료여부 메뉴가 정상적으로 출력 되는지 확인.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중요도 표시가 정상적으로 표시 되는지 확인.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 년도를 클릭한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>년도 메뉴 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 월을 클릭한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>월 메뉴 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일 메뉴 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 일을 클릭한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 선택을 클릭한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"오전", "오후" 메뉴 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 시간을 클릭한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간 메뉴 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마감 기한 시간 메뉴가 정상적으로 출력되는지 확인.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 수강 과목 선택을 클릭한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수강 과목 선택 메뉴 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 완료여부를 클릭한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>완료여부 메뉴 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 별모양 아이콘을 클릭한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노란색 별 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Todo항목 등록 창 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빈 칸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>년도 메뉴 중, "년도" 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>월 메뉴 중, "월" 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일 메뉴 중, "일" 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"오전", "오후" 메뉴 중, "선택" 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시 메뉴 중, "시간" 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수강 과목 선택 메뉴 중, "수강과목선택" 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>완료 여부 메뉴 중, "완료 여부" 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중요도 별을 선택하지 않음.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>편집 Todo항목 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연동된 홈페이지로부터 새로 추가 된 항목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Todo항목 편집 기능이 정상적으로 동작하는지 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>편집 Todo항목 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 완료여부를 클릭한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-028</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-029</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-033</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-037</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-038</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-043</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-045</t>
+    <t>TC-044</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -946,14 +1458,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC-047</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-048</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TC-049</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -962,15 +1466,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC-052</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-053</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-054</t>
+    <t>TC-051</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -978,19 +1474,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>TC-057</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>TC-067</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC-073</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-075</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-081</t>
+    <t>TC-068</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-069</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-079</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-082</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-083</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1002,378 +1514,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2017.06.04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testcase 작성 및 일부 Test 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구보선</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.06.05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.06.05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 기능이 정상적으로 동작하는지 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잘못된 학번과 비밀번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 입력값을 넣는다.            2. 로그인을 클릭한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정보 에러 메시지창 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.06.05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID와 Password에 대응 되지 않는 학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학교 명 메뉴가 정상적으로 동작하는지 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 학교 명 메뉴를 클릭한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학교 명 메뉴 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 베이스에 등록 된 로그인 정보.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수강과목 편집 기능이 정상적으로 동작하는 지 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UC009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수강 과목 정렬 메뉴가 정상적으로 출력되는지 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수강 과목 관리 화면 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수강 과목 관리 화면 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수강 과목 관리 화면 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. "사전식순", "요일순" 메뉴를 클릭한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"사전식순", "요일순" 메뉴 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요일순 정렬 기능이 정상적으로 동작하는지 확인.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. "요일순"을 클릭한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요일순으로 정렬된 과목 목록.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. "사전식순"을 클릭한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사전식으로 정렬된 과목 목록.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-016</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-017</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-018</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-019</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-021</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-022</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-023</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-025</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-026</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-030</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-031</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-032</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-034</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-035</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-036</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-039</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-040</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-041</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-042</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-044</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-051</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-056</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-057</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-058</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-059</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-060</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-061</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-062</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-063</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-064</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-065</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-066</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-068</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-069</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-070</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-071</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-072</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-074</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-076</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-077</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-078</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-079</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-080</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-082</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-083</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-085</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-087</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-088</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TC-089</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1382,27 +1522,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#791</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testcase 수정 및 일부 Test 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구보선</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. "실제 마감일"을 클릭한다.</t>
+    <t>TC-091</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testcase 수정 및 Test 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#784</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#786</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#788</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1776,9 +1912,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1810,6 +1943,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2141,7 +2277,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2151,20 +2287,20 @@
   <sheetData>
     <row r="1" spans="1:4" ht="40.200000000000003" x14ac:dyDescent="0.4">
       <c r="B1" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="D4" s="17" t="s">
-        <v>13</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="33"/>
       <c r="C6" s="33"/>
@@ -2175,57 +2311,65 @@
     </row>
     <row r="8" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="C8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="D8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="9" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A9" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>247</v>
+      <c r="A9" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A10" s="31" t="s">
-        <v>248</v>
+      <c r="A10" s="30" t="s">
+        <v>221</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="C10" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A11" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="C11" s="27" t="s">
+        <v>375</v>
+      </c>
+      <c r="D11" s="31" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="7"/>
-    </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="6"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="7"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="31"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="6"/>
@@ -2335,11 +2479,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K110"/>
+  <dimension ref="A1:K109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <pane ySplit="7" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K80" sqref="K80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2367,7 +2511,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -2375,7 +2519,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="1">
-        <v>23</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
@@ -2383,12 +2527,12 @@
         <v>11</v>
       </c>
       <c r="C5" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>0</v>
@@ -2397,7 +2541,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>2</v>
@@ -2420,2232 +2564,2448 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B8" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="I8" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="I8" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="K8" s="22"/>
+      <c r="J8" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="K8" s="21"/>
     </row>
     <row r="9" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B9" s="35"/>
-      <c r="C9" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="I9" s="24" t="s">
+      <c r="C9" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="I9" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="K9" s="22"/>
+      <c r="J9" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="K9" s="21"/>
     </row>
     <row r="10" spans="1:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="35"/>
       <c r="C10" s="1" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="D10" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="G10" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>24</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="35"/>
       <c r="C11" s="1" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="35"/>
       <c r="C12" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="35"/>
       <c r="C13" s="1" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="36"/>
       <c r="C14" s="1" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="G14" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="I14" s="1" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="K14" s="18"/>
     </row>
     <row r="15" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B15" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="I15" s="1" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B16" s="35"/>
       <c r="C16" s="1" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B17" s="36"/>
       <c r="C17" s="1" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B18" s="34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="5"/>
+        <v>57</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>304</v>
+      </c>
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B19" s="35"/>
       <c r="C19" s="1" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="5"/>
+        <v>133</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>304</v>
+      </c>
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B20" s="35"/>
       <c r="C20" s="1" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="5"/>
+        <v>141</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>304</v>
+      </c>
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B21" s="35"/>
       <c r="C21" s="1" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="5"/>
+        <v>144</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>304</v>
+      </c>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B22" s="35"/>
       <c r="C22" s="1" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="5"/>
+        <v>148</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>304</v>
+      </c>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B23" s="35"/>
       <c r="C23" s="1" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="18" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="5"/>
+        <v>151</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>304</v>
+      </c>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B24" s="35"/>
       <c r="C24" s="1" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="18"/>
+        <v>58</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="K24" s="18" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="25" spans="2:11" ht="58.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="35"/>
       <c r="C25" s="1" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>304</v>
+      </c>
       <c r="K25" s="18"/>
     </row>
     <row r="26" spans="2:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B26" s="35"/>
       <c r="C26" s="1" t="s">
-        <v>290</v>
+        <v>346</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="5"/>
+        <v>155</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>304</v>
+      </c>
       <c r="K26" s="18"/>
     </row>
     <row r="27" spans="2:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B27" s="35"/>
       <c r="C27" s="1" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>304</v>
+      </c>
       <c r="K27" s="18"/>
     </row>
     <row r="28" spans="2:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B28" s="35"/>
       <c r="C28" s="1" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="5"/>
+        <v>155</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>304</v>
+      </c>
       <c r="K28" s="18"/>
     </row>
     <row r="29" spans="2:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B29" s="35"/>
       <c r="C29" s="1" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>304</v>
+      </c>
       <c r="K29" s="18"/>
     </row>
     <row r="30" spans="2:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B30" s="36"/>
       <c r="C30" s="1" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>304</v>
+      </c>
       <c r="K30" s="18"/>
     </row>
     <row r="31" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B31" s="19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F31" s="18"/>
       <c r="G31" s="18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>265</v>
+        <v>135</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="K31" s="18" t="s">
-        <v>339</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="K31" s="18"/>
     </row>
     <row r="32" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B32" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="F32" s="18"/>
       <c r="G32" s="18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B33" s="35"/>
       <c r="C33" s="1" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B34" s="35"/>
       <c r="C34" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B35" s="35"/>
       <c r="C35" s="1" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B36" s="35"/>
       <c r="C36" s="1" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="D36" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="18" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="2:11" ht="64.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="35"/>
       <c r="C37" s="1" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="K37" s="18" t="s">
-        <v>339</v>
+        <v>294</v>
       </c>
     </row>
     <row r="38" spans="2:11" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="35"/>
       <c r="C38" s="1" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>265</v>
+        <v>348</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="K38" s="18" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" ht="73.8" customHeight="1" x14ac:dyDescent="0.4">
+        <v>347</v>
+      </c>
+      <c r="K38" s="18"/>
+    </row>
+    <row r="39" spans="2:11" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="35"/>
       <c r="C39" s="1" t="s">
-        <v>300</v>
+        <v>207</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>168</v>
+        <v>31</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>265</v>
+        <v>348</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="K39" s="18" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+        <v>347</v>
+      </c>
+      <c r="K39" s="18"/>
+    </row>
+    <row r="40" spans="2:11" ht="78" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="35"/>
       <c r="C40" s="1" t="s">
-        <v>224</v>
+        <v>271</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="G40" s="18" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>265</v>
+        <v>348</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="K40" s="18" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" ht="78" customHeight="1" x14ac:dyDescent="0.4">
+        <v>347</v>
+      </c>
+      <c r="K40" s="18"/>
+    </row>
+    <row r="41" spans="2:11" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="35"/>
       <c r="C41" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="K41" s="18"/>
+    </row>
+    <row r="42" spans="2:11" ht="78" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="36"/>
+      <c r="C42" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="K42" s="18"/>
+    </row>
+    <row r="43" spans="2:11" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="J43" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="D41" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F41" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="G41" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="K41" s="18" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="35"/>
-      <c r="C42" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F42" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="G42" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="K42" s="18" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" ht="78" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="36"/>
-      <c r="C43" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F43" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="G43" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="J43" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="K43" s="18" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B44" s="5" t="s">
+      <c r="K43" s="18"/>
+    </row>
+    <row r="44" spans="2:11" ht="46.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="35"/>
+      <c r="C44" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D44" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>38</v>
-      </c>
       <c r="E44" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F44" s="1"/>
+        <v>306</v>
+      </c>
+      <c r="F44" s="18"/>
       <c r="G44" s="18" t="s">
-        <v>177</v>
+        <v>317</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I44" s="1"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="1"/>
+        <v>318</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="K44" s="18"/>
     </row>
     <row r="45" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B45" s="34" t="s">
-        <v>40</v>
-      </c>
+      <c r="B45" s="36"/>
       <c r="C45" s="1" t="s">
-        <v>226</v>
+        <v>274</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>82</v>
+        <v>320</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="18" t="s">
-        <v>83</v>
+        <v>309</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I45" s="1"/>
-      <c r="J45" s="5"/>
+        <v>319</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>304</v>
+      </c>
       <c r="K45" s="1"/>
     </row>
     <row r="46" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B46" s="35"/>
+      <c r="B46" s="34" t="s">
+        <v>38</v>
+      </c>
       <c r="C46" s="1" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="18" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I46" s="1"/>
-      <c r="J46" s="5"/>
+        <v>79</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>304</v>
+      </c>
       <c r="K46" s="1"/>
     </row>
     <row r="47" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B47" s="35"/>
       <c r="C47" s="1" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="E47" s="18" t="s">
-        <v>71</v>
+        <v>62</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="18" t="s">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="I47" s="1"/>
-      <c r="J47" s="5"/>
+        <v>64</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>304</v>
+      </c>
       <c r="K47" s="1"/>
     </row>
     <row r="48" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B48" s="35"/>
       <c r="C48" s="1" t="s">
-        <v>306</v>
+        <v>276</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="F48" s="18"/>
+        <v>67</v>
+      </c>
+      <c r="F48" s="1"/>
       <c r="G48" s="18" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="I48" s="1"/>
-      <c r="J48" s="5"/>
+        <v>172</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>304</v>
+      </c>
       <c r="K48" s="1"/>
     </row>
     <row r="49" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B49" s="35"/>
       <c r="C49" s="1" t="s">
-        <v>307</v>
+        <v>208</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F49" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="F49" s="18"/>
       <c r="G49" s="18" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="I49" s="1"/>
-      <c r="J49" s="5"/>
+        <v>174</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>304</v>
+      </c>
       <c r="K49" s="1"/>
     </row>
     <row r="50" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B50" s="35"/>
       <c r="C50" s="1" t="s">
-        <v>227</v>
+        <v>356</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="F50" s="18"/>
+        <v>67</v>
+      </c>
+      <c r="F50" s="1"/>
       <c r="G50" s="18" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="I50" s="1"/>
-      <c r="J50" s="5"/>
+        <v>175</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>304</v>
+      </c>
       <c r="K50" s="1"/>
     </row>
     <row r="51" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B51" s="35"/>
       <c r="C51" s="1" t="s">
-        <v>308</v>
+        <v>209</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F51" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="F51" s="18"/>
       <c r="G51" s="18" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="I51" s="1"/>
-      <c r="J51" s="5"/>
+        <v>178</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>304</v>
+      </c>
       <c r="K51" s="1"/>
     </row>
     <row r="52" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B52" s="35"/>
       <c r="C52" s="1" t="s">
-        <v>228</v>
+        <v>357</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="F52" s="18"/>
+        <v>67</v>
+      </c>
+      <c r="F52" s="1"/>
       <c r="G52" s="18" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="I52" s="1"/>
-      <c r="J52" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>304</v>
+      </c>
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B53" s="35"/>
       <c r="C53" s="1" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="D53" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="H53" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E53" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F53" s="1"/>
-      <c r="G53" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I53" s="1"/>
-      <c r="J53" s="5"/>
+      <c r="I53" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>304</v>
+      </c>
       <c r="K53" s="1"/>
     </row>
     <row r="54" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B54" s="35"/>
       <c r="C54" s="1" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F54" s="18"/>
       <c r="G54" s="18" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="I54" s="1"/>
-      <c r="J54" s="5"/>
+        <v>186</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>304</v>
+      </c>
       <c r="K54" s="1"/>
     </row>
     <row r="55" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B55" s="35"/>
       <c r="C55" s="1" t="s">
-        <v>231</v>
+        <v>358</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>212</v>
+        <v>351</v>
       </c>
       <c r="G55" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I55" s="1"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="K55" s="18" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="56" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B56" s="35"/>
       <c r="C56" s="1" t="s">
-        <v>232</v>
+        <v>359</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="G56" s="18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I56" s="1"/>
-      <c r="J56" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>304</v>
+      </c>
       <c r="K56" s="1"/>
     </row>
     <row r="57" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B57" s="35"/>
       <c r="C57" s="1" t="s">
-        <v>233</v>
+        <v>360</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="G57" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I57" s="1"/>
-      <c r="J57" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>304</v>
+      </c>
       <c r="K57" s="1"/>
     </row>
     <row r="58" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B58" s="35"/>
       <c r="C58" s="1" t="s">
-        <v>309</v>
+        <v>337</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E58" s="18" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="G58" s="18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I58" s="1"/>
-      <c r="J58" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>304</v>
+      </c>
       <c r="K58" s="1"/>
     </row>
     <row r="59" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B59" s="35"/>
       <c r="C59" s="1" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E59" s="18" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="G59" s="18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I59" s="1"/>
-      <c r="J59" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>304</v>
+      </c>
       <c r="K59" s="1"/>
     </row>
     <row r="60" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B60" s="35"/>
       <c r="C60" s="1" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E60" s="18" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G60" s="18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I60" s="1"/>
-      <c r="J60" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>304</v>
+      </c>
       <c r="K60" s="1"/>
     </row>
     <row r="61" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B61" s="35"/>
       <c r="C61" s="1" t="s">
-        <v>236</v>
+        <v>361</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I61" s="1"/>
-      <c r="J61" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>304</v>
+      </c>
       <c r="K61" s="1"/>
     </row>
     <row r="62" spans="2:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B62" s="35"/>
       <c r="C62" s="1" t="s">
-        <v>237</v>
+        <v>277</v>
       </c>
       <c r="D62" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E62" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F62" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="G62" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="K62" s="1"/>
+    </row>
+    <row r="63" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B63" s="36"/>
+      <c r="C63" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E63" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F63" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="G63" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="K63" s="1"/>
+    </row>
+    <row r="64" spans="2:11" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B64" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D64" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E62" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="F62" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="G62" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I62" s="1"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="1"/>
-    </row>
-    <row r="63" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B63" s="35"/>
-      <c r="C63" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D63" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E63" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="F63" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="G63" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I63" s="1"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="1"/>
-    </row>
-    <row r="64" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B64" s="36"/>
-      <c r="C64" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D64" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E64" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="F64" s="18" t="s">
-        <v>211</v>
-      </c>
+      <c r="F64" s="18"/>
       <c r="G64" s="18" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I64" s="1"/>
-      <c r="J64" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>301</v>
+      </c>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="2:11" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B65" s="20" t="s">
-        <v>55</v>
+    <row r="65" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B65" s="34" t="s">
+        <v>40</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="F65" s="18"/>
       <c r="G65" s="18" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I65" s="1"/>
-      <c r="J65" s="5"/>
+        <v>71</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>301</v>
+      </c>
       <c r="K65" s="1"/>
     </row>
     <row r="66" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B66" s="34" t="s">
-        <v>42</v>
-      </c>
+      <c r="B66" s="35"/>
       <c r="C66" s="1" t="s">
-        <v>313</v>
+        <v>280</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>69</v>
+        <v>164</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F66" s="18"/>
+        <v>72</v>
+      </c>
+      <c r="F66" s="1"/>
       <c r="G66" s="18" t="s">
-        <v>74</v>
+        <v>171</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I66" s="1"/>
-      <c r="J66" s="5"/>
+        <v>172</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J66" s="5" t="s">
+        <v>301</v>
+      </c>
       <c r="K66" s="1"/>
     </row>
     <row r="67" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B67" s="35"/>
       <c r="C67" s="1" t="s">
-        <v>314</v>
+        <v>281</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F67" s="1"/>
+        <v>72</v>
+      </c>
+      <c r="F67" s="18"/>
       <c r="G67" s="18" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="I67" s="1"/>
-      <c r="J67" s="5"/>
+        <v>174</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>301</v>
+      </c>
       <c r="K67" s="1"/>
     </row>
     <row r="68" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B68" s="35"/>
       <c r="C68" s="1" t="s">
-        <v>315</v>
+        <v>282</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F68" s="18"/>
+        <v>72</v>
+      </c>
+      <c r="F68" s="1"/>
       <c r="G68" s="18" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="I68" s="1"/>
-      <c r="J68" s="5"/>
+        <v>175</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>301</v>
+      </c>
       <c r="K68" s="1"/>
     </row>
     <row r="69" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B69" s="35"/>
       <c r="C69" s="1" t="s">
-        <v>316</v>
+        <v>283</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F69" s="1"/>
+        <v>72</v>
+      </c>
+      <c r="F69" s="18"/>
       <c r="G69" s="18" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="I69" s="1"/>
-      <c r="J69" s="5"/>
+        <v>178</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>301</v>
+      </c>
       <c r="K69" s="1"/>
     </row>
     <row r="70" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B70" s="35"/>
       <c r="C70" s="1" t="s">
-        <v>317</v>
+        <v>338</v>
       </c>
       <c r="D70" s="18" t="s">
         <v>181</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F70" s="18"/>
+        <v>72</v>
+      </c>
+      <c r="F70" s="1"/>
       <c r="G70" s="18" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="I70" s="1"/>
-      <c r="J70" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>301</v>
+      </c>
       <c r="K70" s="1"/>
     </row>
     <row r="71" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B71" s="35"/>
       <c r="C71" s="1" t="s">
-        <v>318</v>
+        <v>284</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F71" s="1"/>
       <c r="G71" s="18" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="I71" s="1"/>
-      <c r="J71" s="5"/>
+        <v>184</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>301</v>
+      </c>
       <c r="K71" s="1"/>
     </row>
     <row r="72" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B72" s="35"/>
       <c r="C72" s="1" t="s">
-        <v>319</v>
+        <v>285</v>
       </c>
       <c r="D72" s="18" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F72" s="18"/>
       <c r="G72" s="18" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="I72" s="1"/>
-      <c r="J72" s="5"/>
+        <v>186</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>301</v>
+      </c>
       <c r="K72" s="1"/>
     </row>
     <row r="73" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B73" s="35"/>
       <c r="C73" s="1" t="s">
-        <v>320</v>
+        <v>363</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F73" s="1"/>
+        <v>72</v>
+      </c>
+      <c r="F73" s="18" t="s">
+        <v>198</v>
+      </c>
       <c r="G73" s="18" t="s">
-        <v>216</v>
+        <v>63</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I73" s="1"/>
-      <c r="J73" s="5"/>
-      <c r="K73" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="K73" s="18" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="74" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B74" s="35"/>
       <c r="C74" s="1" t="s">
-        <v>238</v>
+        <v>364</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F74" s="18"/>
+        <v>72</v>
+      </c>
+      <c r="F74" s="18" t="s">
+        <v>188</v>
+      </c>
       <c r="G74" s="18" t="s">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="I74" s="1"/>
-      <c r="J74" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="J74" s="5" t="s">
+        <v>301</v>
+      </c>
       <c r="K74" s="1"/>
     </row>
     <row r="75" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B75" s="35"/>
       <c r="C75" s="1" t="s">
-        <v>321</v>
+        <v>365</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="G75" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I75" s="1"/>
-      <c r="J75" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>301</v>
+      </c>
       <c r="K75" s="1"/>
     </row>
     <row r="76" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B76" s="35"/>
       <c r="C76" s="1" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F76" s="18" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="G76" s="18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I76" s="1"/>
-      <c r="J76" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>301</v>
+      </c>
       <c r="K76" s="1"/>
     </row>
     <row r="77" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B77" s="35"/>
       <c r="C77" s="1" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F77" s="18" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="G77" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I77" s="1"/>
-      <c r="J77" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>301</v>
+      </c>
       <c r="K77" s="1"/>
     </row>
     <row r="78" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B78" s="35"/>
       <c r="C78" s="1" t="s">
-        <v>324</v>
+        <v>287</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="G78" s="18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I78" s="1"/>
-      <c r="J78" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="J78" s="5" t="s">
+        <v>301</v>
+      </c>
       <c r="K78" s="1"/>
     </row>
     <row r="79" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B79" s="35"/>
       <c r="C79" s="1" t="s">
-        <v>325</v>
+        <v>214</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F79" s="18" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="G79" s="18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I79" s="1"/>
-      <c r="J79" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>301</v>
+      </c>
       <c r="K79" s="1"/>
     </row>
     <row r="80" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B80" s="35"/>
       <c r="C80" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D80" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F80" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="G80" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B81" s="34" t="s">
         <v>239</v>
       </c>
-      <c r="D80" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F80" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="G80" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I80" s="1"/>
-      <c r="J80" s="5"/>
-      <c r="K80" s="1"/>
-    </row>
-    <row r="81" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B81" s="35"/>
       <c r="C81" s="1" t="s">
-        <v>326</v>
+        <v>215</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F81" s="18" t="s">
-        <v>208</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="F81" s="18"/>
       <c r="G81" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I81" s="1"/>
-      <c r="J81" s="5"/>
+        <v>244</v>
+      </c>
+      <c r="H81" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="J81" s="5" t="s">
+        <v>221</v>
+      </c>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" spans="2:11" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B82" s="35"/>
       <c r="C82" s="1" t="s">
-        <v>240</v>
+        <v>289</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F82" s="18" t="s">
-        <v>209</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="E82" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="F82" s="18"/>
       <c r="G82" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I82" s="1"/>
-      <c r="J82" s="5"/>
+        <v>248</v>
+      </c>
+      <c r="H82" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="J82" s="5" t="s">
+        <v>223</v>
+      </c>
       <c r="K82" s="1"/>
     </row>
     <row r="83" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B83" s="35"/>
+      <c r="B83" s="36"/>
       <c r="C83" s="1" t="s">
-        <v>327</v>
+        <v>290</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F83" s="18" t="s">
-        <v>210</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="E83" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="F83" s="18"/>
       <c r="G83" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I83" s="1"/>
-      <c r="J83" s="5"/>
+        <v>250</v>
+      </c>
+      <c r="H83" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="J83" s="5" t="s">
+        <v>221</v>
+      </c>
       <c r="K83" s="1"/>
     </row>
     <row r="84" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B84" s="36"/>
+      <c r="B84" s="34" t="s">
+        <v>42</v>
+      </c>
       <c r="C84" s="1" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>214</v>
+        <v>305</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F84" s="18" t="s">
-        <v>211</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="F84" s="1"/>
       <c r="G84" s="18" t="s">
-        <v>68</v>
+        <v>302</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I84" s="1"/>
-      <c r="J84" s="5"/>
+        <v>303</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="J84" s="5" t="s">
+        <v>304</v>
+      </c>
       <c r="K84" s="1"/>
     </row>
     <row r="85" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B85" s="34" t="s">
-        <v>267</v>
-      </c>
+      <c r="B85" s="35"/>
       <c r="C85" s="1" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="D85" s="18" t="s">
-        <v>268</v>
+        <v>43</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="F85" s="18"/>
+        <v>306</v>
+      </c>
+      <c r="F85" s="1"/>
       <c r="G85" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="H85" s="18" t="s">
-        <v>273</v>
+        <v>309</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>248</v>
+        <v>304</v>
       </c>
       <c r="K85" s="1"/>
     </row>
     <row r="86" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B86" s="35"/>
+      <c r="B86" s="36"/>
       <c r="C86" s="1" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="D86" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="E86" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="F86" s="18"/>
+        <v>43</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F86" s="1"/>
       <c r="G86" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="H86" s="18" t="s">
-        <v>277</v>
+        <v>307</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>308</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>256</v>
+        <v>300</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>250</v>
+        <v>304</v>
       </c>
       <c r="K86" s="1"/>
     </row>
     <row r="87" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B87" s="36"/>
+      <c r="B87" s="34" t="s">
+        <v>44</v>
+      </c>
       <c r="C87" s="1" t="s">
-        <v>331</v>
+        <v>216</v>
       </c>
       <c r="D87" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="E87" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="F87" s="18"/>
+        <v>73</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F87" s="1"/>
       <c r="G87" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="H87" s="18" t="s">
-        <v>279</v>
+        <v>81</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>256</v>
+        <v>298</v>
       </c>
       <c r="J87" s="5" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="K87" s="1"/>
     </row>
     <row r="88" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B88" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="B88" s="35"/>
       <c r="C88" s="1" t="s">
-        <v>241</v>
+        <v>368</v>
       </c>
       <c r="D88" s="18" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="F88" s="1"/>
-      <c r="G88" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I88" s="1"/>
-      <c r="J88" s="5"/>
+      <c r="G88" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H88" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J88" s="5" t="s">
+        <v>221</v>
+      </c>
       <c r="K88" s="1"/>
     </row>
     <row r="89" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B89" s="34" t="s">
-        <v>47</v>
-      </c>
+      <c r="B89" s="35"/>
       <c r="C89" s="1" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="D89" s="18" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="F89" s="1"/>
-      <c r="G89" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="H89" s="1" t="s">
+      <c r="G89" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="H89" s="18" t="s">
+        <v>84</v>
+      </c>
       <c r="I89" s="1" t="s">
-        <v>343</v>
+        <v>224</v>
       </c>
       <c r="J89" s="5" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="K89" s="1"/>
     </row>
     <row r="90" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B90" s="35"/>
       <c r="C90" s="1" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="D90" s="18" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1" t="s">
-        <v>91</v>
+        <v>299</v>
       </c>
       <c r="H90" s="18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="J90" s="5" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="K90" s="1"/>
     </row>
     <row r="91" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B91" s="35"/>
       <c r="C91" s="1" t="s">
-        <v>242</v>
+        <v>291</v>
       </c>
       <c r="D91" s="18" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H91" s="18" t="s">
         <v>89</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="J91" s="5" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="K91" s="1"/>
     </row>
     <row r="92" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B92" s="35"/>
+      <c r="B92" s="36"/>
       <c r="C92" s="1" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1" t="s">
-        <v>344</v>
+        <v>95</v>
       </c>
       <c r="H92" s="18" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="J92" s="5" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="K92" s="1"/>
     </row>
-    <row r="93" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B93" s="35"/>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B93" s="34" t="s">
+        <v>103</v>
+      </c>
       <c r="C93" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E93" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="D93" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H93" s="18" t="s">
-        <v>94</v>
+        <v>104</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>256</v>
+        <v>300</v>
       </c>
       <c r="J93" s="5" t="s">
-        <v>248</v>
+        <v>304</v>
       </c>
       <c r="K93" s="1"/>
     </row>
     <row r="94" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B94" s="36"/>
+      <c r="B94" s="35"/>
       <c r="C94" s="1" t="s">
-        <v>335</v>
+        <v>293</v>
       </c>
       <c r="D94" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F94" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="E94" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="F94" s="18"/>
       <c r="G94" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="H94" s="18" t="s">
-        <v>105</v>
+        <v>333</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>256</v>
+        <v>300</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>248</v>
+        <v>301</v>
       </c>
       <c r="K94" s="1"/>
     </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B95" s="34" t="s">
-        <v>108</v>
+        <v>334</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>113</v>
+        <v>372</v>
+      </c>
+      <c r="D95" s="18" t="s">
+        <v>324</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F95" s="1"/>
+        <v>326</v>
+      </c>
+      <c r="F95" s="18"/>
       <c r="G95" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I95" s="1"/>
-      <c r="J95" s="5"/>
+        <v>328</v>
+      </c>
+      <c r="H95" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J95" s="5" t="s">
+        <v>301</v>
+      </c>
       <c r="K95" s="1"/>
     </row>
     <row r="96" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B96" s="35"/>
       <c r="C96" s="1" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="D96" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="E96" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="F96" s="18" t="s">
-        <v>114</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F96" s="18"/>
       <c r="G96" s="1" t="s">
-        <v>116</v>
+        <v>329</v>
       </c>
       <c r="H96" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="I96" s="1"/>
-      <c r="J96" s="5"/>
+        <v>331</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>301</v>
+      </c>
       <c r="K96" s="1"/>
     </row>
     <row r="97" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B97" s="36"/>
       <c r="C97" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F97" s="18" t="s">
-        <v>213</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="D97" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="E97" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="F97" s="1"/>
       <c r="G97" s="1" t="s">
-        <v>119</v>
+        <v>322</v>
       </c>
       <c r="H97" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="I97" s="1"/>
-      <c r="J97" s="5"/>
+        <v>323</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>301</v>
+      </c>
       <c r="K97" s="1"/>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.4">
@@ -4781,10 +5141,6 @@
       <c r="K108" s="1"/>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
@@ -4792,25 +5148,20 @@
       <c r="J109" s="5"/>
       <c r="K109" s="1"/>
     </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
-      <c r="J110" s="5"/>
-      <c r="K110" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
+    <mergeCell ref="B95:B97"/>
     <mergeCell ref="B8:B14"/>
-    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B93:B94"/>
     <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B89:B94"/>
-    <mergeCell ref="B66:B84"/>
-    <mergeCell ref="B45:B64"/>
+    <mergeCell ref="B87:B92"/>
+    <mergeCell ref="B65:B80"/>
+    <mergeCell ref="B46:B63"/>
     <mergeCell ref="B18:B30"/>
-    <mergeCell ref="B32:B43"/>
-    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="B32:B42"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B43:B45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">

--- a/doc/4_ 테스트케이스 및 테스트결과보고서/테스트케이스.xlsx
+++ b/doc/4_ 테스트케이스 및 테스트결과보고서/테스트케이스.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="394">
   <si>
     <t>TestCase ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1194,6 +1194,394 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>#791</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testcase 수정 및 일부 Test 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구보선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. "실제 마감일"을 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.06.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. "삭제"를 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제 확인 메시지창 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.06.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Todo항목 삭제 확인 메시지가 정상적으로 출력 되는지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제 확인 메시지창 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. "예"를 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 Todo 항목 삭제 된 화면.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. "아니오"를 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이전 화면 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-037</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-038</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강과목 삭제 확인 메시지가 정상적으로 출력 되는지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"변경", "삭제"메뉴 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 삭제를 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. "예"를 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 과목 삭제 된 화면 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이전 화면 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제 확인 메시지창 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 정보가 들어있는 데이터베이스 구축.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 로그인을 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인이 성공하고, 수강 과목 관리 화면 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스 ITEM &lt;SUBJECT&gt;가 정상적으로 생성 되었는지 확인.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스 ITEM &lt;TO DO LIST&gt;가 정상적으로 생성 되었는지 확인.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스 정상 구축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스 정상 구축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 수강 과목을 추가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Todo항목을 추가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가된 과목이 수강관리 화면에 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가된 Todo항목이 Todo항목 관리 화면에 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강 과목 관리 화면 출력 및 마감일이 하루 남은 Todo항목 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마감일이 하루 남은 Todo항목 출력된 알림 창 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC012, UC011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스 구축 및 설계와 연동이 정상적으로 완료 됐는지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-041</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-052</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-064</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-071</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-078</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구보선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;Mixharmony&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.06.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.06.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.06.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Todo항목 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보 입력 에러 메시지창 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-044</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-046</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-049</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-051</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-055</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-057</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-067</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-068</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-069</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-079</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-082</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-083</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-084</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-089</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-090</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-091</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testcase 수정 및 Test 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#784</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#786</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#788</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료 항목 숨기기 기능이 정상 작동 하는지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 전체 항목 보기 체크박스를 체크한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-086</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Todo항목 창 출력 및 완료 된 Todo항목 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료된 항목은 보이지 않는 항목 리스트 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.06.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료 항목 보이기 기능이 정상 작동 하는지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료된 항목이 포함된 항목 리스트 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전테 항목 보기 체크 박스 체크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 전체 항목 보기 체크박스 체크를 해제한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료된 항목이 포함되지 않은 항목 리스트 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>TC-087</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1202,343 +1590,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#791</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testcase 수정 및 일부 Test 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구보선</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. "실제 마감일"을 클릭한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.06.07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. "삭제"를 클릭한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삭제 확인 메시지창 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.06.07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Todo항목 삭제 확인 메시지가 정상적으로 출력 되는지 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삭제 확인 메시지창 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. "예"를 클릭한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 Todo 항목 삭제 된 화면.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. "아니오"를 클릭한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이전 화면 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-037</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-038</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수강과목 삭제 확인 메시지가 정상적으로 출력 되는지 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"변경", "삭제"메뉴 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 삭제를 클릭한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. "예"를 클릭한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 과목 삭제 된 화면 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이전 화면 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삭제 확인 메시지창 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 정보가 들어있는 데이터베이스 구축.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 로그인을 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인이 성공하고, 수강 과목 관리 화면 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터베이스 ITEM &lt;SUBJECT&gt;가 정상적으로 생성 되었는지 확인.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터베이스 ITEM &lt;TO DO LIST&gt;가 정상적으로 생성 되었는지 확인.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터베이스 정상 구축</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터베이스 정상 구축</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 수강 과목을 추가한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Todo항목을 추가한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가된 과목이 수강관리 화면에 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가된 Todo항목이 Todo항목 관리 화면에 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수강 과목 관리 화면 출력 및 마감일이 하루 남은 Todo항목 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마감일이 하루 남은 Todo항목 출력된 알림 창 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UC012, UC011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터베이스 구축 및 설계와 연동이 정상적으로 완료 됐는지 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-041</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-052</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-064</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-071</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-078</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V0.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구보선</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;Mixharmony&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-019</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.06.07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.06.07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.06.07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Todo항목 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정보 입력 에러 메시지창 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-044</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-046</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-049</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-050</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-051</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-055</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-057</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-067</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-068</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-069</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-079</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-080</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-082</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-083</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-084</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-086</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-089</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-090</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-091</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testcase 수정 및 Test 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#784</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#786</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#788</t>
+    <t>TC-092</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-093</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-094</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2294,7 +2354,7 @@
     <row r="3" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="D4" s="17" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2342,27 +2402,27 @@
         <v>221</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="D10" s="31" t="s">
         <v>295</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>296</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A11" s="30" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
@@ -2479,11 +2539,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K109"/>
+  <dimension ref="A1:K112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K80" sqref="K80"/>
+      <pane ySplit="7" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2511,7 +2571,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="1">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -2519,7 +2579,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="1">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
@@ -2855,10 +2915,10 @@
         <v>57</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K18" s="1"/>
     </row>
@@ -2881,10 +2941,10 @@
         <v>133</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K19" s="1"/>
     </row>
@@ -2907,10 +2967,10 @@
         <v>141</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K20" s="1"/>
     </row>
@@ -2933,10 +2993,10 @@
         <v>144</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K21" s="1"/>
     </row>
@@ -2959,10 +3019,10 @@
         <v>148</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K22" s="1"/>
     </row>
@@ -2985,10 +3045,10 @@
         <v>151</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K23" s="1"/>
     </row>
@@ -3013,13 +3073,13 @@
         <v>58</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K24" s="18" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="58.8" customHeight="1" x14ac:dyDescent="0.4">
@@ -3043,17 +3103,17 @@
         <v>31</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K25" s="18"/>
     </row>
     <row r="26" spans="2:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B26" s="35"/>
       <c r="C26" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>33</v>
@@ -3071,10 +3131,10 @@
         <v>155</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K26" s="18"/>
     </row>
@@ -3099,10 +3159,10 @@
         <v>31</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K27" s="18"/>
     </row>
@@ -3127,10 +3187,10 @@
         <v>155</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K28" s="18"/>
     </row>
@@ -3155,10 +3215,10 @@
         <v>31</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K29" s="18"/>
     </row>
@@ -3183,10 +3243,10 @@
         <v>35</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K30" s="18"/>
     </row>
@@ -3214,7 +3274,7 @@
         <v>135</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="K31" s="18"/>
     </row>
@@ -3377,7 +3437,7 @@
         <v>223</v>
       </c>
       <c r="K37" s="18" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="38" spans="2:11" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.4">
@@ -3401,10 +3461,10 @@
         <v>31</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="K38" s="18"/>
     </row>
@@ -3429,10 +3489,10 @@
         <v>31</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="K39" s="18"/>
     </row>
@@ -3457,10 +3517,10 @@
         <v>155</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="K40" s="18"/>
     </row>
@@ -3485,10 +3545,10 @@
         <v>31</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="K41" s="18"/>
     </row>
@@ -3513,10 +3573,10 @@
         <v>31</v>
       </c>
       <c r="I42" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="J42" s="5" t="s">
         <v>348</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>350</v>
       </c>
       <c r="K42" s="18"/>
     </row>
@@ -3525,52 +3585,52 @@
         <v>36</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D43" s="18" t="s">
         <v>312</v>
       </c>
-      <c r="D43" s="18" t="s">
-        <v>314</v>
-      </c>
       <c r="E43" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F43" s="18"/>
       <c r="G43" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K43" s="18"/>
     </row>
     <row r="44" spans="2:11" ht="46.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="35"/>
       <c r="C44" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>37</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F44" s="18"/>
       <c r="G44" s="18" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K44" s="18"/>
     </row>
@@ -3583,20 +3643,20 @@
         <v>37</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="18" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K45" s="1"/>
     </row>
@@ -3621,17 +3681,17 @@
         <v>79</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K46" s="1"/>
     </row>
     <row r="47" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B47" s="35"/>
       <c r="C47" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D47" s="18" t="s">
         <v>62</v>
@@ -3647,10 +3707,10 @@
         <v>64</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K47" s="1"/>
     </row>
@@ -3673,10 +3733,10 @@
         <v>172</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K48" s="1"/>
     </row>
@@ -3699,17 +3759,17 @@
         <v>174</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K49" s="1"/>
     </row>
     <row r="50" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B50" s="35"/>
       <c r="C50" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D50" s="18" t="s">
         <v>166</v>
@@ -3725,10 +3785,10 @@
         <v>175</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K50" s="1"/>
     </row>
@@ -3751,17 +3811,17 @@
         <v>178</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K51" s="1"/>
     </row>
     <row r="52" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B52" s="35"/>
       <c r="C52" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D52" s="18" t="s">
         <v>181</v>
@@ -3777,10 +3837,10 @@
         <v>180</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K52" s="1"/>
     </row>
@@ -3803,10 +3863,10 @@
         <v>183</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K53" s="1"/>
     </row>
@@ -3829,17 +3889,17 @@
         <v>186</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K54" s="1"/>
     </row>
     <row r="55" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B55" s="35"/>
       <c r="C55" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D55" s="18" t="s">
         <v>39</v>
@@ -3848,7 +3908,7 @@
         <v>187</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G55" s="18" t="s">
         <v>63</v>
@@ -3860,16 +3920,16 @@
         <v>236</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K55" s="18" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="56" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B56" s="35"/>
       <c r="C56" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D56" s="18" t="s">
         <v>39</v>
@@ -3887,17 +3947,17 @@
         <v>31</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K56" s="1"/>
     </row>
     <row r="57" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B57" s="35"/>
       <c r="C57" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D57" s="18" t="s">
         <v>39</v>
@@ -3915,17 +3975,17 @@
         <v>31</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K57" s="1"/>
     </row>
     <row r="58" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B58" s="35"/>
       <c r="C58" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D58" s="18" t="s">
         <v>39</v>
@@ -3943,10 +4003,10 @@
         <v>31</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K58" s="1"/>
     </row>
@@ -3971,10 +4031,10 @@
         <v>31</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K59" s="1"/>
     </row>
@@ -3999,17 +4059,17 @@
         <v>31</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K60" s="1"/>
     </row>
     <row r="61" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B61" s="35"/>
       <c r="C61" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D61" s="18" t="s">
         <v>39</v>
@@ -4027,10 +4087,10 @@
         <v>31</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K61" s="1"/>
     </row>
@@ -4055,17 +4115,17 @@
         <v>31</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K62" s="1"/>
     </row>
     <row r="63" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B63" s="36"/>
       <c r="C63" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D63" s="18" t="s">
         <v>39</v>
@@ -4083,10 +4143,10 @@
         <v>31</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K63" s="1"/>
     </row>
@@ -4111,10 +4171,10 @@
         <v>51</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K64" s="1"/>
     </row>
@@ -4139,10 +4199,10 @@
         <v>71</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K65" s="1"/>
     </row>
@@ -4165,10 +4225,10 @@
         <v>172</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K66" s="1"/>
     </row>
@@ -4191,10 +4251,10 @@
         <v>174</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K67" s="1"/>
     </row>
@@ -4217,10 +4277,10 @@
         <v>175</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K68" s="1"/>
     </row>
@@ -4243,17 +4303,17 @@
         <v>178</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K69" s="1"/>
     </row>
     <row r="70" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B70" s="35"/>
       <c r="C70" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D70" s="18" t="s">
         <v>181</v>
@@ -4269,10 +4329,10 @@
         <v>180</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K70" s="1"/>
     </row>
@@ -4295,10 +4355,10 @@
         <v>184</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K71" s="1"/>
     </row>
@@ -4321,17 +4381,17 @@
         <v>186</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J72" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K72" s="1"/>
     </row>
     <row r="73" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B73" s="35"/>
       <c r="C73" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D73" s="18" t="s">
         <v>197</v>
@@ -4352,16 +4412,16 @@
         <v>236</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K73" s="18" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="74" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B74" s="35"/>
       <c r="C74" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D74" s="18" t="s">
         <v>197</v>
@@ -4379,17 +4439,17 @@
         <v>31</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K74" s="1"/>
     </row>
     <row r="75" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B75" s="35"/>
       <c r="C75" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D75" s="18" t="s">
         <v>197</v>
@@ -4407,10 +4467,10 @@
         <v>31</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K75" s="1"/>
     </row>
@@ -4435,17 +4495,17 @@
         <v>31</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K76" s="1"/>
     </row>
     <row r="77" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B77" s="35"/>
       <c r="C77" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D77" s="18" t="s">
         <v>197</v>
@@ -4463,10 +4523,10 @@
         <v>31</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K77" s="1"/>
     </row>
@@ -4491,10 +4551,10 @@
         <v>31</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K78" s="1"/>
     </row>
@@ -4519,10 +4579,10 @@
         <v>31</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K79" s="1"/>
     </row>
@@ -4544,16 +4604,16 @@
         <v>65</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="81" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -4641,78 +4701,78 @@
         <v>42</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F84" s="1"/>
       <c r="G84" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="J84" s="5" t="s">
         <v>302</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="J84" s="5" t="s">
-        <v>304</v>
       </c>
       <c r="K84" s="1"/>
     </row>
     <row r="85" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B85" s="35"/>
       <c r="C85" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D85" s="18" t="s">
         <v>43</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="I85" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="H85" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>311</v>
-      </c>
       <c r="J85" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K85" s="1"/>
     </row>
     <row r="86" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B86" s="36"/>
       <c r="C86" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D86" s="18" t="s">
         <v>43</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F86" s="1"/>
       <c r="G86" s="18" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K86" s="1"/>
     </row>
@@ -4737,7 +4797,7 @@
         <v>82</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J87" s="5" t="s">
         <v>221</v>
@@ -4747,7 +4807,7 @@
     <row r="88" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B88" s="35"/>
       <c r="C88" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D88" s="18" t="s">
         <v>90</v>
@@ -4773,7 +4833,7 @@
     <row r="89" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B89" s="35"/>
       <c r="C89" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D89" s="18" t="s">
         <v>91</v>
@@ -4799,7 +4859,7 @@
     <row r="90" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B90" s="35"/>
       <c r="C90" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D90" s="18" t="s">
         <v>92</v>
@@ -4809,7 +4869,7 @@
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H90" s="18" t="s">
         <v>85</v>
@@ -4849,199 +4909,239 @@
       <c r="K91" s="1"/>
     </row>
     <row r="92" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B92" s="36"/>
+      <c r="B92" s="35"/>
       <c r="C92" s="1" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>99</v>
+        <v>376</v>
+      </c>
+      <c r="E92" s="18" t="s">
+        <v>379</v>
       </c>
       <c r="F92" s="1"/>
-      <c r="G92" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="G92" s="1"/>
       <c r="H92" s="18" t="s">
-        <v>100</v>
+        <v>380</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>229</v>
+        <v>381</v>
       </c>
       <c r="J92" s="5" t="s">
-        <v>221</v>
+        <v>382</v>
       </c>
       <c r="K92" s="1"/>
     </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B93" s="34" t="s">
-        <v>103</v>
-      </c>
+    <row r="93" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B93" s="35"/>
       <c r="C93" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>243</v>
+        <v>389</v>
+      </c>
+      <c r="D93" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="E93" s="18" t="s">
+        <v>379</v>
       </c>
       <c r="F93" s="1"/>
-      <c r="G93" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>105</v>
+      <c r="G93" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="H93" s="18" t="s">
+        <v>385</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>300</v>
+        <v>383</v>
       </c>
       <c r="J93" s="5" t="s">
-        <v>304</v>
+        <v>382</v>
       </c>
       <c r="K93" s="1"/>
     </row>
     <row r="94" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B94" s="35"/>
       <c r="C94" s="1" t="s">
-        <v>293</v>
+        <v>390</v>
       </c>
       <c r="D94" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="E94" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="F94" s="1"/>
+      <c r="G94" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="H94" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="K94" s="1"/>
+    </row>
+    <row r="95" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B95" s="36"/>
+      <c r="C95" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D95" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H95" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="J95" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="K95" s="1"/>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B96" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="K96" s="1"/>
+    </row>
+    <row r="97" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B97" s="35"/>
+      <c r="C97" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D97" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="E94" s="18" t="s">
+      <c r="E97" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="F97" s="18"/>
+      <c r="G97" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H97" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="K97" s="1"/>
+    </row>
+    <row r="98" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B98" s="34" t="s">
         <v>332</v>
       </c>
-      <c r="F94" s="18"/>
-      <c r="G94" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H94" s="18" t="s">
+      <c r="C98" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D98" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F98" s="18"/>
+      <c r="G98" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H98" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J98" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="K98" s="1"/>
+    </row>
+    <row r="99" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B99" s="35"/>
+      <c r="C99" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D99" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F99" s="18"/>
+      <c r="G99" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H99" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J99" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="K99" s="1"/>
+    </row>
+    <row r="100" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B100" s="36"/>
+      <c r="C100" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D100" s="18" t="s">
         <v>333</v>
       </c>
-      <c r="I94" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="J94" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="K94" s="1"/>
-    </row>
-    <row r="95" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B95" s="34" t="s">
-        <v>334</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="D95" s="18" t="s">
-        <v>324</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="F95" s="18"/>
-      <c r="G95" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="H95" s="18" t="s">
-        <v>330</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J95" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="K95" s="1"/>
-    </row>
-    <row r="96" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B96" s="35"/>
-      <c r="C96" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D96" s="18" t="s">
-        <v>325</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="F96" s="18"/>
-      <c r="G96" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="H96" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J96" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="K96" s="1"/>
-    </row>
-    <row r="97" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B97" s="36"/>
-      <c r="C97" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="D97" s="18" t="s">
-        <v>335</v>
-      </c>
-      <c r="E97" s="18" t="s">
+      <c r="E100" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H100" s="18" t="s">
         <v>321</v>
       </c>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="H97" s="18" t="s">
-        <v>323</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J97" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="K97" s="1"/>
-    </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="5"/>
-      <c r="K98" s="1"/>
-    </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="5"/>
-      <c r="K99" s="1"/>
-    </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="5"/>
+      <c r="I100" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J100" s="5" t="s">
+        <v>299</v>
+      </c>
       <c r="K100" s="1"/>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.4">
@@ -5141,6 +5241,10 @@
       <c r="K108" s="1"/>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
@@ -5148,13 +5252,45 @@
       <c r="J109" s="5"/>
       <c r="K109" s="1"/>
     </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="5"/>
+      <c r="K110" s="1"/>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="5"/>
+      <c r="K111" s="1"/>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="5"/>
+      <c r="K112" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
     <mergeCell ref="B8:B14"/>
-    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="B96:B97"/>
     <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B87:B92"/>
+    <mergeCell ref="B87:B95"/>
     <mergeCell ref="B65:B80"/>
     <mergeCell ref="B46:B63"/>
     <mergeCell ref="B18:B30"/>

--- a/doc/4_ 테스트케이스 및 테스트결과보고서/테스트케이스.xlsx
+++ b/doc/4_ 테스트케이스 및 테스트결과보고서/테스트케이스.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12168" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12168" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="이력" sheetId="2" r:id="rId1"/>
     <sheet name="테스트케이스" sheetId="1" r:id="rId2"/>
+    <sheet name="White Test를 위한 알고리즘" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -2037,6 +2038,61 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A4970E7-F01E-4EAC-BD08-7220EA088553}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="-5400000">
+          <a:off x="601980" y="-548640"/>
+          <a:ext cx="6858000" cy="8001000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -2539,11 +2595,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K112"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D94" sqref="D94"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E115" sqref="E115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5143,146 +5199,6 @@
         <v>299</v>
       </c>
       <c r="K100" s="1"/>
-    </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="5"/>
-      <c r="K101" s="1"/>
-    </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-      <c r="J102" s="5"/>
-      <c r="K102" s="1"/>
-    </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-      <c r="J103" s="5"/>
-      <c r="K103" s="1"/>
-    </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-      <c r="J104" s="5"/>
-      <c r="K104" s="1"/>
-    </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-      <c r="J105" s="5"/>
-      <c r="K105" s="1"/>
-    </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
-      <c r="J106" s="5"/>
-      <c r="K106" s="1"/>
-    </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
-      <c r="J107" s="5"/>
-      <c r="K107" s="1"/>
-    </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
-      <c r="J108" s="5"/>
-      <c r="K108" s="1"/>
-    </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
-      <c r="J109" s="5"/>
-      <c r="K109" s="1"/>
-    </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
-      <c r="J110" s="5"/>
-      <c r="K110" s="1"/>
-    </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
-      <c r="J111" s="5"/>
-      <c r="K111" s="1"/>
-    </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
-      <c r="H112" s="1"/>
-      <c r="I112" s="1"/>
-      <c r="J112" s="5"/>
-      <c r="K112" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -5308,4 +5224,81 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="M2:O13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+    </row>
+    <row r="5" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+    </row>
+    <row r="9" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+    </row>
+    <row r="12" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/4_ 테스트케이스 및 테스트결과보고서/테스트케이스.xlsx
+++ b/doc/4_ 테스트케이스 및 테스트결과보고서/테스트케이스.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12168" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12168"/>
   </bookViews>
   <sheets>
     <sheet name="이력" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="392">
   <si>
     <t>TestCase ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -971,10 +971,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>데이터 베이스에 등록 된 로그인 정보.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1195,10 +1191,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#791</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>V0.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1399,10 +1391,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TC-019</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1519,18 +1507,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#784</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#786</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#788</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>완료 항목 숨기기 기능이 정상 작동 하는지 확인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1600,6 +1576,21 @@
   </si>
   <si>
     <t>TC-094</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>V1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 Testcase Test 완료 및 최종 수정 완료.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구보선</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2392,8 +2383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2410,7 +2401,7 @@
     <row r="3" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="D4" s="17" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2458,34 +2449,42 @@
         <v>221</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="D10" s="31" t="s">
         <v>293</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>294</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A11" s="30" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="30"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="31"/>
+        <v>338</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A12" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>390</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="6"/>
@@ -2599,7 +2598,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E115" sqref="E115"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2635,7 +2634,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="1">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
@@ -2643,7 +2642,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2733,7 +2732,7 @@
     <row r="10" spans="1:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="35"/>
       <c r="C10" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>22</v>
@@ -2742,13 +2741,13 @@
         <v>113</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>23</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>135</v>
@@ -2761,7 +2760,7 @@
     <row r="11" spans="1:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="35"/>
       <c r="C11" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>22</v>
@@ -2817,7 +2816,7 @@
     <row r="13" spans="1:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="35"/>
       <c r="C13" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>225</v>
@@ -2845,7 +2844,7 @@
     <row r="14" spans="1:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="36"/>
       <c r="C14" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>30</v>
@@ -2881,7 +2880,7 @@
         <v>124</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
@@ -2927,7 +2926,7 @@
     <row r="17" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B17" s="36"/>
       <c r="C17" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>122</v>
@@ -2961,7 +2960,7 @@
         <v>128</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
@@ -2971,10 +2970,10 @@
         <v>57</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K18" s="1"/>
     </row>
@@ -2997,10 +2996,10 @@
         <v>133</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K19" s="1"/>
     </row>
@@ -3023,17 +3022,17 @@
         <v>141</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B21" s="35"/>
       <c r="C21" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>142</v>
@@ -3049,17 +3048,17 @@
         <v>144</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B22" s="35"/>
       <c r="C22" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>145</v>
@@ -3075,17 +3074,17 @@
         <v>148</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B23" s="35"/>
       <c r="C23" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>149</v>
@@ -3101,17 +3100,17 @@
         <v>151</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B24" s="35"/>
       <c r="C24" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>129</v>
@@ -3129,19 +3128,17 @@
         <v>58</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>343</v>
+        <v>388</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="K24" s="18" t="s">
-        <v>373</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="K24" s="18"/>
     </row>
     <row r="25" spans="2:11" ht="58.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="35"/>
       <c r="C25" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>33</v>
@@ -3159,17 +3156,17 @@
         <v>31</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K25" s="18"/>
     </row>
     <row r="26" spans="2:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B26" s="35"/>
       <c r="C26" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>33</v>
@@ -3187,17 +3184,17 @@
         <v>155</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K26" s="18"/>
     </row>
     <row r="27" spans="2:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B27" s="35"/>
       <c r="C27" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>33</v>
@@ -3215,17 +3212,17 @@
         <v>31</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K27" s="18"/>
     </row>
     <row r="28" spans="2:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B28" s="35"/>
       <c r="C28" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>33</v>
@@ -3243,17 +3240,17 @@
         <v>155</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K28" s="18"/>
     </row>
     <row r="29" spans="2:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B29" s="35"/>
       <c r="C29" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>33</v>
@@ -3271,17 +3268,17 @@
         <v>31</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K29" s="18"/>
     </row>
     <row r="30" spans="2:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B30" s="36"/>
       <c r="C30" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>33</v>
@@ -3299,10 +3296,10 @@
         <v>35</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K30" s="18"/>
     </row>
@@ -3311,7 +3308,7 @@
         <v>48</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>47</v>
@@ -3330,7 +3327,7 @@
         <v>135</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K31" s="18"/>
     </row>
@@ -3339,7 +3336,7 @@
         <v>32</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>161</v>
@@ -3365,7 +3362,7 @@
     <row r="33" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B33" s="35"/>
       <c r="C33" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D33" s="18" t="s">
         <v>138</v>
@@ -3469,10 +3466,10 @@
     <row r="37" spans="2:11" ht="64.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="35"/>
       <c r="C37" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>162</v>
@@ -3487,22 +3484,20 @@
         <v>163</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>236</v>
+        <v>388</v>
       </c>
       <c r="J37" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="K37" s="18" t="s">
-        <v>292</v>
-      </c>
+      <c r="K37" s="18"/>
     </row>
     <row r="38" spans="2:11" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="35"/>
       <c r="C38" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>162</v>
@@ -3517,10 +3512,10 @@
         <v>31</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K38" s="18"/>
     </row>
@@ -3530,7 +3525,7 @@
         <v>207</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>162</v>
@@ -3545,20 +3540,20 @@
         <v>31</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K39" s="18"/>
     </row>
     <row r="40" spans="2:11" ht="78" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="35"/>
       <c r="C40" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>162</v>
@@ -3573,20 +3568,20 @@
         <v>155</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K40" s="18"/>
     </row>
     <row r="41" spans="2:11" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="35"/>
       <c r="C41" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>162</v>
@@ -3601,20 +3596,20 @@
         <v>31</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="K41" s="18"/>
     </row>
     <row r="42" spans="2:11" ht="78" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="36"/>
       <c r="C42" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>162</v>
@@ -3629,10 +3624,10 @@
         <v>31</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="K42" s="18"/>
     </row>
@@ -3641,78 +3636,78 @@
         <v>36</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D43" s="18" t="s">
         <v>310</v>
       </c>
-      <c r="D43" s="18" t="s">
-        <v>312</v>
-      </c>
       <c r="E43" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F43" s="18"/>
       <c r="G43" s="18" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K43" s="18"/>
     </row>
     <row r="44" spans="2:11" ht="46.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="35"/>
       <c r="C44" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>37</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F44" s="18"/>
       <c r="G44" s="18" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K44" s="18"/>
     </row>
     <row r="45" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B45" s="36"/>
       <c r="C45" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D45" s="18" t="s">
         <v>37</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="18" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K45" s="1"/>
     </row>
@@ -3721,7 +3716,7 @@
         <v>38</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D46" s="18" t="s">
         <v>75</v>
@@ -3737,17 +3732,17 @@
         <v>79</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K46" s="1"/>
     </row>
     <row r="47" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B47" s="35"/>
       <c r="C47" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D47" s="18" t="s">
         <v>62</v>
@@ -3763,17 +3758,17 @@
         <v>64</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K47" s="1"/>
     </row>
     <row r="48" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B48" s="35"/>
       <c r="C48" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D48" s="18" t="s">
         <v>164</v>
@@ -3789,10 +3784,10 @@
         <v>172</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K48" s="1"/>
     </row>
@@ -3815,17 +3810,17 @@
         <v>174</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K49" s="1"/>
     </row>
     <row r="50" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B50" s="35"/>
       <c r="C50" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D50" s="18" t="s">
         <v>166</v>
@@ -3841,10 +3836,10 @@
         <v>175</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K50" s="1"/>
     </row>
@@ -3867,17 +3862,17 @@
         <v>178</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K51" s="1"/>
     </row>
     <row r="52" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B52" s="35"/>
       <c r="C52" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D52" s="18" t="s">
         <v>181</v>
@@ -3893,10 +3888,10 @@
         <v>180</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K52" s="1"/>
     </row>
@@ -3919,10 +3914,10 @@
         <v>183</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K53" s="1"/>
     </row>
@@ -3945,17 +3940,17 @@
         <v>186</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K54" s="1"/>
     </row>
     <row r="55" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B55" s="35"/>
       <c r="C55" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D55" s="18" t="s">
         <v>39</v>
@@ -3964,7 +3959,7 @@
         <v>187</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G55" s="18" t="s">
         <v>63</v>
@@ -3973,19 +3968,17 @@
         <v>34</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>236</v>
+        <v>388</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="K55" s="18" t="s">
-        <v>374</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="K55" s="18"/>
     </row>
     <row r="56" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B56" s="35"/>
       <c r="C56" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D56" s="18" t="s">
         <v>39</v>
@@ -4003,17 +3996,17 @@
         <v>31</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K56" s="1"/>
     </row>
     <row r="57" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B57" s="35"/>
       <c r="C57" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D57" s="18" t="s">
         <v>39</v>
@@ -4031,17 +4024,17 @@
         <v>31</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K57" s="1"/>
     </row>
     <row r="58" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B58" s="35"/>
       <c r="C58" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D58" s="18" t="s">
         <v>39</v>
@@ -4059,10 +4052,10 @@
         <v>31</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K58" s="1"/>
     </row>
@@ -4087,10 +4080,10 @@
         <v>31</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K59" s="1"/>
     </row>
@@ -4115,17 +4108,17 @@
         <v>31</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K60" s="1"/>
     </row>
     <row r="61" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B61" s="35"/>
       <c r="C61" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D61" s="18" t="s">
         <v>39</v>
@@ -4143,17 +4136,17 @@
         <v>31</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K61" s="1"/>
     </row>
     <row r="62" spans="2:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B62" s="35"/>
       <c r="C62" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D62" s="18" t="s">
         <v>39</v>
@@ -4171,17 +4164,17 @@
         <v>31</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K62" s="1"/>
     </row>
     <row r="63" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B63" s="36"/>
       <c r="C63" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D63" s="18" t="s">
         <v>39</v>
@@ -4199,10 +4192,10 @@
         <v>31</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K63" s="1"/>
     </row>
@@ -4211,7 +4204,7 @@
         <v>52</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D64" s="18" t="s">
         <v>53</v>
@@ -4227,10 +4220,10 @@
         <v>51</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K64" s="1"/>
     </row>
@@ -4239,7 +4232,7 @@
         <v>40</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D65" s="18" t="s">
         <v>66</v>
@@ -4255,17 +4248,17 @@
         <v>71</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K65" s="1"/>
     </row>
     <row r="66" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B66" s="35"/>
       <c r="C66" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D66" s="18" t="s">
         <v>164</v>
@@ -4281,17 +4274,17 @@
         <v>172</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K66" s="1"/>
     </row>
     <row r="67" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B67" s="35"/>
       <c r="C67" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D67" s="18" t="s">
         <v>165</v>
@@ -4307,17 +4300,17 @@
         <v>174</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K67" s="1"/>
     </row>
     <row r="68" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B68" s="35"/>
       <c r="C68" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D68" s="18" t="s">
         <v>166</v>
@@ -4333,17 +4326,17 @@
         <v>175</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K68" s="1"/>
     </row>
     <row r="69" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B69" s="35"/>
       <c r="C69" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D69" s="18" t="s">
         <v>167</v>
@@ -4359,17 +4352,17 @@
         <v>178</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K69" s="1"/>
     </row>
     <row r="70" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B70" s="35"/>
       <c r="C70" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D70" s="18" t="s">
         <v>181</v>
@@ -4385,17 +4378,17 @@
         <v>180</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K70" s="1"/>
     </row>
     <row r="71" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B71" s="35"/>
       <c r="C71" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D71" s="18" t="s">
         <v>169</v>
@@ -4411,17 +4404,17 @@
         <v>184</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K71" s="1"/>
     </row>
     <row r="72" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B72" s="35"/>
       <c r="C72" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D72" s="18" t="s">
         <v>170</v>
@@ -4437,17 +4430,17 @@
         <v>186</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J72" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K72" s="1"/>
     </row>
     <row r="73" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B73" s="35"/>
       <c r="C73" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D73" s="18" t="s">
         <v>197</v>
@@ -4465,19 +4458,17 @@
         <v>34</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>236</v>
+        <v>388</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="K73" s="18" t="s">
-        <v>375</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="K73" s="18"/>
     </row>
     <row r="74" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B74" s="35"/>
       <c r="C74" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D74" s="18" t="s">
         <v>197</v>
@@ -4495,17 +4486,17 @@
         <v>31</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K74" s="1"/>
     </row>
     <row r="75" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B75" s="35"/>
       <c r="C75" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D75" s="18" t="s">
         <v>197</v>
@@ -4523,17 +4514,17 @@
         <v>31</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K75" s="1"/>
     </row>
     <row r="76" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B76" s="35"/>
       <c r="C76" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D76" s="18" t="s">
         <v>197</v>
@@ -4551,17 +4542,17 @@
         <v>31</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K76" s="1"/>
     </row>
     <row r="77" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B77" s="35"/>
       <c r="C77" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D77" s="18" t="s">
         <v>197</v>
@@ -4579,17 +4570,17 @@
         <v>31</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K77" s="1"/>
     </row>
     <row r="78" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B78" s="35"/>
       <c r="C78" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D78" s="18" t="s">
         <v>197</v>
@@ -4607,10 +4598,10 @@
         <v>31</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K78" s="1"/>
     </row>
@@ -4635,17 +4626,17 @@
         <v>31</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K79" s="1"/>
     </row>
     <row r="80" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B80" s="35"/>
       <c r="C80" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D80" s="18" t="s">
         <v>197</v>
@@ -4660,40 +4651,38 @@
         <v>65</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>343</v>
+        <v>135</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="K80" s="1" t="s">
-        <v>375</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="K80" s="1"/>
     </row>
     <row r="81" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B81" s="34" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>215</v>
       </c>
       <c r="D81" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="F81" s="18"/>
       <c r="G81" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="H81" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="H81" s="18" t="s">
+      <c r="I81" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="J81" s="5" t="s">
         <v>221</v>
@@ -4703,20 +4692,20 @@
     <row r="82" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B82" s="35"/>
       <c r="C82" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F82" s="18"/>
       <c r="G82" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="H82" s="18" t="s">
         <v>248</v>
-      </c>
-      <c r="H82" s="18" t="s">
-        <v>249</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>229</v>
@@ -4729,20 +4718,20 @@
     <row r="83" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B83" s="36"/>
       <c r="C83" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E83" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F83" s="18"/>
       <c r="G83" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="H83" s="18" t="s">
         <v>250</v>
-      </c>
-      <c r="H83" s="18" t="s">
-        <v>251</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>229</v>
@@ -4757,78 +4746,78 @@
         <v>42</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F84" s="1"/>
       <c r="G84" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="J84" s="5" t="s">
         <v>300</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="J84" s="5" t="s">
-        <v>302</v>
       </c>
       <c r="K84" s="1"/>
     </row>
     <row r="85" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B85" s="35"/>
       <c r="C85" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D85" s="18" t="s">
         <v>43</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="I85" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="H85" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>309</v>
-      </c>
       <c r="J85" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K85" s="1"/>
     </row>
     <row r="86" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B86" s="36"/>
       <c r="C86" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D86" s="18" t="s">
         <v>43</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F86" s="1"/>
       <c r="G86" s="18" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K86" s="1"/>
     </row>
@@ -4853,7 +4842,7 @@
         <v>82</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J87" s="5" t="s">
         <v>221</v>
@@ -4863,7 +4852,7 @@
     <row r="88" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B88" s="35"/>
       <c r="C88" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D88" s="18" t="s">
         <v>90</v>
@@ -4889,7 +4878,7 @@
     <row r="89" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B89" s="35"/>
       <c r="C89" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D89" s="18" t="s">
         <v>91</v>
@@ -4915,7 +4904,7 @@
     <row r="90" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B90" s="35"/>
       <c r="C90" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D90" s="18" t="s">
         <v>92</v>
@@ -4925,7 +4914,7 @@
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H90" s="18" t="s">
         <v>85</v>
@@ -4941,7 +4930,7 @@
     <row r="91" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B91" s="35"/>
       <c r="C91" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D91" s="18" t="s">
         <v>93</v>
@@ -4967,83 +4956,83 @@
     <row r="92" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B92" s="35"/>
       <c r="C92" s="1" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E92" s="18" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="18" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="J92" s="5" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="K92" s="1"/>
     </row>
     <row r="93" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B93" s="35"/>
       <c r="C93" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="D93" s="18" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="E93" s="18" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="H93" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="I93" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="H93" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>383</v>
-      </c>
       <c r="J93" s="5" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="K93" s="1"/>
     </row>
     <row r="94" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B94" s="35"/>
       <c r="C94" s="1" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D94" s="18" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E94" s="18" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="F94" s="1"/>
       <c r="G94" s="18" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H94" s="18" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="K94" s="1"/>
     </row>
     <row r="95" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B95" s="36"/>
       <c r="C95" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D95" s="18" t="s">
         <v>94</v>
@@ -5071,13 +5060,13 @@
         <v>103</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>107</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1" t="s">
@@ -5087,116 +5076,116 @@
         <v>105</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J96" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K96" s="1"/>
     </row>
     <row r="97" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B97" s="35"/>
       <c r="C97" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D97" s="18" t="s">
         <v>106</v>
       </c>
       <c r="E97" s="18" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F97" s="18"/>
       <c r="G97" s="1" t="s">
         <v>108</v>
       </c>
       <c r="H97" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J97" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K97" s="1"/>
     </row>
     <row r="98" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B98" s="34" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="D98" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="E98" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="F98" s="18"/>
       <c r="G98" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H98" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="H98" s="18" t="s">
-        <v>328</v>
-      </c>
       <c r="I98" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J98" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K98" s="1"/>
     </row>
     <row r="99" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B99" s="35"/>
       <c r="C99" s="1" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D99" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="E99" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>325</v>
       </c>
       <c r="F99" s="18"/>
       <c r="G99" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="H99" s="18" t="s">
         <v>327</v>
       </c>
-      <c r="H99" s="18" t="s">
-        <v>329</v>
-      </c>
       <c r="I99" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K99" s="1"/>
     </row>
     <row r="100" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B100" s="36"/>
       <c r="C100" s="1" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D100" s="18" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E100" s="18" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F100" s="1"/>
       <c r="G100" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H100" s="18" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J100" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K100" s="1"/>
     </row>
@@ -5230,7 +5219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="M2:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
